--- a/Outputs/5. Budget constrained/Grid Search/Output Files/2000000/Output_14_29.xlsx
+++ b/Outputs/5. Budget constrained/Grid Search/Output Files/2000000/Output_14_29.xlsx
@@ -471,7 +471,7 @@
         </is>
       </c>
       <c r="B3" t="n">
-        <v>0</v>
+        <v>0.001</v>
       </c>
     </row>
     <row r="4">
@@ -501,7 +501,7 @@
         </is>
       </c>
       <c r="B6" t="n">
-        <v>2168431.47486469</v>
+        <v>2166096.363662709</v>
       </c>
     </row>
     <row r="7">
@@ -521,7 +521,7 @@
         </is>
       </c>
       <c r="B8" t="n">
-        <v>416855.1052283188</v>
+        <v>416855.1052283189</v>
       </c>
     </row>
     <row r="9">
@@ -659,22 +659,22 @@
         <v>0</v>
       </c>
       <c r="C2" t="n">
-        <v>0</v>
+        <v>72.94942429078246</v>
       </c>
       <c r="D2" t="n">
-        <v>354.683041620683</v>
+        <v>0</v>
       </c>
       <c r="E2" t="n">
         <v>0</v>
       </c>
       <c r="F2" t="n">
-        <v>133.1063583954259</v>
+        <v>6.876045741711437</v>
       </c>
       <c r="G2" t="n">
         <v>411.547702772954</v>
       </c>
       <c r="H2" t="n">
-        <v>0</v>
+        <v>301.0185525624054</v>
       </c>
       <c r="I2" t="n">
         <v>65.70991267247049</v>
@@ -707,7 +707,7 @@
         <v>0</v>
       </c>
       <c r="S2" t="n">
-        <v>0</v>
+        <v>123.4522153987944</v>
       </c>
       <c r="T2" t="n">
         <v>206.6581849802338</v>
@@ -722,10 +722,10 @@
         <v>349.240968717413</v>
       </c>
       <c r="X2" t="n">
-        <v>0</v>
+        <v>369.731100678469</v>
       </c>
       <c r="Y2" t="n">
-        <v>386.2379386560536</v>
+        <v>0</v>
       </c>
     </row>
     <row r="3">
@@ -756,7 +756,7 @@
         <v>92.83156789269626</v>
       </c>
       <c r="I3" t="n">
-        <v>20.22295923705015</v>
+        <v>20.22295923705013</v>
       </c>
       <c r="J3" t="n">
         <v>0</v>
@@ -820,19 +820,19 @@
         <v>0</v>
       </c>
       <c r="D4" t="n">
-        <v>148.6154730182124</v>
+        <v>0</v>
       </c>
       <c r="E4" t="n">
-        <v>146.4339626465692</v>
+        <v>0</v>
       </c>
       <c r="F4" t="n">
         <v>145.4210480229312</v>
       </c>
       <c r="G4" t="n">
-        <v>166.3066000448042</v>
+        <v>0</v>
       </c>
       <c r="H4" t="n">
-        <v>147.2515091551289</v>
+        <v>0</v>
       </c>
       <c r="I4" t="n">
         <v>104.7965952039006</v>
@@ -868,22 +868,22 @@
         <v>194.6624603617375</v>
       </c>
       <c r="T4" t="n">
-        <v>0</v>
+        <v>220.7486959972119</v>
       </c>
       <c r="U4" t="n">
-        <v>0</v>
+        <v>286.2271541212006</v>
       </c>
       <c r="V4" t="n">
-        <v>117.443058184113</v>
+        <v>252.137643323828</v>
       </c>
       <c r="W4" t="n">
         <v>0</v>
       </c>
       <c r="X4" t="n">
-        <v>0</v>
+        <v>185.5217629586822</v>
       </c>
       <c r="Y4" t="n">
-        <v>218.5846533520948</v>
+        <v>0</v>
       </c>
     </row>
     <row r="5">
@@ -899,7 +899,7 @@
         <v>365.2728917710076</v>
       </c>
       <c r="D5" t="n">
-        <v>354.683041620683</v>
+        <v>0</v>
       </c>
       <c r="E5" t="n">
         <v>381.9303700722618</v>
@@ -908,13 +908,13 @@
         <v>6.876045741711437</v>
       </c>
       <c r="G5" t="n">
-        <v>325.7285744933623</v>
+        <v>411.547702772954</v>
       </c>
       <c r="H5" t="n">
-        <v>0</v>
+        <v>301.0185525624054</v>
       </c>
       <c r="I5" t="n">
-        <v>0</v>
+        <v>56.70882917873416</v>
       </c>
       <c r="J5" t="n">
         <v>0</v>
@@ -944,25 +944,25 @@
         <v>0</v>
       </c>
       <c r="S5" t="n">
-        <v>123.4522153987944</v>
+        <v>0</v>
       </c>
       <c r="T5" t="n">
-        <v>0</v>
+        <v>206.6581849802338</v>
       </c>
       <c r="U5" t="n">
-        <v>251.045250128462</v>
+        <v>0</v>
       </c>
       <c r="V5" t="n">
-        <v>327.7522584701349</v>
+        <v>0</v>
       </c>
       <c r="W5" t="n">
-        <v>349.240968717413</v>
+        <v>0</v>
       </c>
       <c r="X5" t="n">
-        <v>0</v>
+        <v>369.731100678469</v>
       </c>
       <c r="Y5" t="n">
-        <v>0</v>
+        <v>386.2379386560536</v>
       </c>
     </row>
     <row r="6">
@@ -1051,10 +1051,10 @@
         </is>
       </c>
       <c r="B7" t="n">
-        <v>179.8319801819373</v>
+        <v>0</v>
       </c>
       <c r="C7" t="n">
-        <v>167.2468210986278</v>
+        <v>0</v>
       </c>
       <c r="D7" t="n">
         <v>148.6154730182124</v>
@@ -1066,10 +1066,10 @@
         <v>0</v>
       </c>
       <c r="G7" t="n">
-        <v>166.3066000448042</v>
+        <v>0</v>
       </c>
       <c r="H7" t="n">
-        <v>147.2515091551289</v>
+        <v>0</v>
       </c>
       <c r="I7" t="n">
         <v>0</v>
@@ -1099,28 +1099,28 @@
         <v>0</v>
       </c>
       <c r="R7" t="n">
-        <v>0</v>
+        <v>96.97633795874938</v>
       </c>
       <c r="S7" t="n">
-        <v>0</v>
+        <v>194.6624603617375</v>
       </c>
       <c r="T7" t="n">
-        <v>40.91084156835758</v>
+        <v>0</v>
       </c>
       <c r="U7" t="n">
         <v>286.2271541212006</v>
       </c>
       <c r="V7" t="n">
-        <v>0</v>
+        <v>252.137643323828</v>
       </c>
       <c r="W7" t="n">
-        <v>286.522998336591</v>
+        <v>0</v>
       </c>
       <c r="X7" t="n">
-        <v>0</v>
+        <v>225.7096553890372</v>
       </c>
       <c r="Y7" t="n">
-        <v>0</v>
+        <v>218.5846533520948</v>
       </c>
     </row>
     <row r="8">
@@ -1130,22 +1130,22 @@
         </is>
       </c>
       <c r="B8" t="n">
-        <v>382.7338416634806</v>
+        <v>0</v>
       </c>
       <c r="C8" t="n">
         <v>365.2728917710076</v>
       </c>
       <c r="D8" t="n">
-        <v>354.683041620683</v>
+        <v>128.253870317768</v>
       </c>
       <c r="E8" t="n">
         <v>381.9303700722618</v>
       </c>
       <c r="F8" t="n">
-        <v>406.8760457417114</v>
+        <v>6.876045741711437</v>
       </c>
       <c r="G8" t="n">
-        <v>410.9217256534534</v>
+        <v>10.92172565345345</v>
       </c>
       <c r="H8" t="n">
         <v>294.6077643873205</v>
@@ -1181,25 +1181,25 @@
         <v>0</v>
       </c>
       <c r="S8" t="n">
-        <v>0</v>
+        <v>109.1877617881758</v>
       </c>
       <c r="T8" t="n">
-        <v>0</v>
+        <v>203.9179701396201</v>
       </c>
       <c r="U8" t="n">
-        <v>0</v>
+        <v>250.995171958902</v>
       </c>
       <c r="V8" t="n">
-        <v>0</v>
+        <v>327.7522584701349</v>
       </c>
       <c r="W8" t="n">
-        <v>218.1690567639037</v>
+        <v>349.240968717413</v>
       </c>
       <c r="X8" t="n">
         <v>369.731100678469</v>
       </c>
       <c r="Y8" t="n">
-        <v>0</v>
+        <v>386.2379386560536</v>
       </c>
     </row>
     <row r="9">
@@ -1288,28 +1288,28 @@
         </is>
       </c>
       <c r="B10" t="n">
-        <v>179.8319801819373</v>
+        <v>0</v>
       </c>
       <c r="C10" t="n">
-        <v>167.2468210986278</v>
+        <v>0</v>
       </c>
       <c r="D10" t="n">
-        <v>148.6154730182124</v>
+        <v>0</v>
       </c>
       <c r="E10" t="n">
-        <v>146.4339626465692</v>
+        <v>0</v>
       </c>
       <c r="F10" t="n">
-        <v>145.4210480229312</v>
+        <v>0</v>
       </c>
       <c r="G10" t="n">
-        <v>0</v>
+        <v>166.0258082590282</v>
       </c>
       <c r="H10" t="n">
-        <v>0</v>
+        <v>144.7550149143208</v>
       </c>
       <c r="I10" t="n">
-        <v>71.67037196991711</v>
+        <v>0</v>
       </c>
       <c r="J10" t="n">
         <v>0</v>
@@ -1339,13 +1339,13 @@
         <v>0</v>
       </c>
       <c r="S10" t="n">
-        <v>0</v>
+        <v>42.67804628306436</v>
       </c>
       <c r="T10" t="n">
-        <v>0</v>
+        <v>219.5489492761692</v>
       </c>
       <c r="U10" t="n">
-        <v>0</v>
+        <v>286.2118382056129</v>
       </c>
       <c r="V10" t="n">
         <v>252.137643323828</v>
@@ -1382,7 +1382,7 @@
         <v>406.8760457417114</v>
       </c>
       <c r="G11" t="n">
-        <v>409.8033385187866</v>
+        <v>409.8033385187861</v>
       </c>
       <c r="H11" t="n">
         <v>283.1540821444137</v>
@@ -1418,13 +1418,13 @@
         <v>0</v>
       </c>
       <c r="S11" t="n">
-        <v>83.70251495695528</v>
+        <v>83.7025149569553</v>
       </c>
       <c r="T11" t="n">
         <v>199.0222304576161</v>
       </c>
       <c r="U11" t="n">
-        <v>250.9057009881293</v>
+        <v>250.9057009881286</v>
       </c>
       <c r="V11" t="n">
         <v>327.7522584701349</v>
@@ -1528,7 +1528,7 @@
         <v>179.8319801819373</v>
       </c>
       <c r="C13" t="n">
-        <v>167.2468210986278</v>
+        <v>120.787132650395</v>
       </c>
       <c r="D13" t="n">
         <v>148.6154730182124</v>
@@ -1537,16 +1537,16 @@
         <v>146.4339626465692</v>
       </c>
       <c r="F13" t="n">
-        <v>145.4210480229312</v>
+        <v>0</v>
       </c>
       <c r="G13" t="n">
-        <v>165.5241382922688</v>
+        <v>0</v>
       </c>
       <c r="H13" t="n">
-        <v>140.2947128462239</v>
+        <v>0</v>
       </c>
       <c r="I13" t="n">
-        <v>81.26583631856552</v>
+        <v>0</v>
       </c>
       <c r="J13" t="n">
         <v>0</v>
@@ -1573,13 +1573,13 @@
         <v>0</v>
       </c>
       <c r="R13" t="n">
-        <v>0</v>
+        <v>66.37524671012169</v>
       </c>
       <c r="S13" t="n">
-        <v>0</v>
+        <v>181.0262860016446</v>
       </c>
       <c r="T13" t="n">
-        <v>0</v>
+        <v>217.4054503272883</v>
       </c>
       <c r="U13" t="n">
         <v>286.1844743892441</v>
@@ -1588,7 +1588,7 @@
         <v>252.137643323828</v>
       </c>
       <c r="W13" t="n">
-        <v>172.3645574474261</v>
+        <v>286.522998336591</v>
       </c>
       <c r="X13" t="n">
         <v>225.7096553890372</v>
@@ -1673,7 +1673,7 @@
         <v>369.731100678469</v>
       </c>
       <c r="Y14" t="n">
-        <v>386.2379386560531</v>
+        <v>386.2379386560536</v>
       </c>
     </row>
     <row r="15">
@@ -1762,10 +1762,10 @@
         </is>
       </c>
       <c r="B16" t="n">
-        <v>0</v>
+        <v>179.8319801819373</v>
       </c>
       <c r="C16" t="n">
-        <v>167.2468210986278</v>
+        <v>0</v>
       </c>
       <c r="D16" t="n">
         <v>148.6154730182124</v>
@@ -1774,16 +1774,16 @@
         <v>0</v>
       </c>
       <c r="F16" t="n">
-        <v>0</v>
+        <v>145.4210480229312</v>
       </c>
       <c r="G16" t="n">
-        <v>165.5241382922688</v>
+        <v>0</v>
       </c>
       <c r="H16" t="n">
-        <v>140.2947128462239</v>
+        <v>121.8000472740347</v>
       </c>
       <c r="I16" t="n">
-        <v>81.26583631856553</v>
+        <v>0</v>
       </c>
       <c r="J16" t="n">
         <v>0</v>
@@ -1825,7 +1825,7 @@
         <v>252.137643323828</v>
       </c>
       <c r="W16" t="n">
-        <v>179.2445652598082</v>
+        <v>286.522998336591</v>
       </c>
       <c r="X16" t="n">
         <v>225.7096553890372</v>
@@ -1856,7 +1856,7 @@
         <v>406.8760457417114</v>
       </c>
       <c r="G17" t="n">
-        <v>409.8033385187866</v>
+        <v>409.8033385187861</v>
       </c>
       <c r="H17" t="n">
         <v>283.1540821444137</v>
@@ -2005,19 +2005,19 @@
         <v>167.2468210986278</v>
       </c>
       <c r="D19" t="n">
-        <v>0</v>
+        <v>148.6154730182124</v>
       </c>
       <c r="E19" t="n">
-        <v>0</v>
+        <v>99.97427419833815</v>
       </c>
       <c r="F19" t="n">
         <v>0</v>
       </c>
       <c r="G19" t="n">
-        <v>165.5241382922688</v>
+        <v>0</v>
       </c>
       <c r="H19" t="n">
-        <v>140.2947128462239</v>
+        <v>0</v>
       </c>
       <c r="I19" t="n">
         <v>0</v>
@@ -2056,7 +2056,7 @@
         <v>217.4054503272883</v>
       </c>
       <c r="U19" t="n">
-        <v>228.9553704673018</v>
+        <v>286.1844743892441</v>
       </c>
       <c r="V19" t="n">
         <v>252.137643323828</v>
@@ -2093,7 +2093,7 @@
         <v>406.8760457417114</v>
       </c>
       <c r="G20" t="n">
-        <v>409.8033385187866</v>
+        <v>409.8033385187861</v>
       </c>
       <c r="H20" t="n">
         <v>283.1540821444137</v>
@@ -2248,16 +2248,16 @@
         <v>0</v>
       </c>
       <c r="F22" t="n">
-        <v>0</v>
+        <v>145.4210480229312</v>
       </c>
       <c r="G22" t="n">
-        <v>108.2950343703266</v>
+        <v>21.90286287505239</v>
       </c>
       <c r="H22" t="n">
-        <v>140.2947128462239</v>
+        <v>0</v>
       </c>
       <c r="I22" t="n">
-        <v>0</v>
+        <v>81.26583631856553</v>
       </c>
       <c r="J22" t="n">
         <v>0</v>
@@ -2479,7 +2479,7 @@
         <v>167.2468210986278</v>
       </c>
       <c r="D25" t="n">
-        <v>0</v>
+        <v>113.6427030833203</v>
       </c>
       <c r="E25" t="n">
         <v>0</v>
@@ -2491,10 +2491,10 @@
         <v>165.5241382922688</v>
       </c>
       <c r="H25" t="n">
-        <v>83.06560892428168</v>
+        <v>140.2947128462239</v>
       </c>
       <c r="I25" t="n">
-        <v>0</v>
+        <v>81.26583631856553</v>
       </c>
       <c r="J25" t="n">
         <v>0</v>
@@ -2533,7 +2533,7 @@
         <v>286.1844743892441</v>
       </c>
       <c r="V25" t="n">
-        <v>252.137643323828</v>
+        <v>0</v>
       </c>
       <c r="W25" t="n">
         <v>286.522998336591</v>
@@ -2719,19 +2719,19 @@
         <v>0</v>
       </c>
       <c r="E28" t="n">
-        <v>0</v>
+        <v>27.02919805176109</v>
       </c>
       <c r="F28" t="n">
         <v>0</v>
       </c>
       <c r="G28" t="n">
-        <v>165.5241382922688</v>
+        <v>0</v>
       </c>
       <c r="H28" t="n">
         <v>140.2947128462239</v>
       </c>
       <c r="I28" t="n">
-        <v>0</v>
+        <v>81.26583631856553</v>
       </c>
       <c r="J28" t="n">
         <v>0</v>
@@ -2770,7 +2770,7 @@
         <v>286.1844743892441</v>
       </c>
       <c r="V28" t="n">
-        <v>194.9085394018857</v>
+        <v>252.137643323828</v>
       </c>
       <c r="W28" t="n">
         <v>286.522998336591</v>
@@ -2950,25 +2950,25 @@
         <v>179.8319801819373</v>
       </c>
       <c r="C31" t="n">
-        <v>28.75188085812005</v>
+        <v>167.2468210986278</v>
       </c>
       <c r="D31" t="n">
-        <v>0</v>
+        <v>148.6154730182124</v>
       </c>
       <c r="E31" t="n">
-        <v>0</v>
+        <v>146.4339626465692</v>
       </c>
       <c r="F31" t="n">
         <v>0</v>
       </c>
       <c r="G31" t="n">
-        <v>165.5241382922688</v>
+        <v>0</v>
       </c>
       <c r="H31" t="n">
         <v>140.2947128462239</v>
       </c>
       <c r="I31" t="n">
-        <v>81.26583631856553</v>
+        <v>0</v>
       </c>
       <c r="J31" t="n">
         <v>0</v>
@@ -3016,7 +3016,7 @@
         <v>225.7096553890372</v>
       </c>
       <c r="Y31" t="n">
-        <v>218.5846533520948</v>
+        <v>31.8302520576399</v>
       </c>
     </row>
     <row r="32">
@@ -3184,13 +3184,13 @@
         </is>
       </c>
       <c r="B34" t="n">
-        <v>179.8319801819373</v>
+        <v>139.5115415340516</v>
       </c>
       <c r="C34" t="n">
         <v>167.2468210986278</v>
       </c>
       <c r="D34" t="n">
-        <v>0</v>
+        <v>148.6154730182124</v>
       </c>
       <c r="E34" t="n">
         <v>0</v>
@@ -3199,10 +3199,10 @@
         <v>0</v>
       </c>
       <c r="G34" t="n">
-        <v>165.5241382922688</v>
+        <v>0</v>
       </c>
       <c r="H34" t="n">
-        <v>83.06560892428168</v>
+        <v>140.2947128462239</v>
       </c>
       <c r="I34" t="n">
         <v>0</v>
@@ -3272,13 +3272,13 @@
         <v>354.683041620683</v>
       </c>
       <c r="E35" t="n">
-        <v>381.9303700722614</v>
+        <v>381.9303700722618</v>
       </c>
       <c r="F35" t="n">
         <v>406.8760457417114</v>
       </c>
       <c r="G35" t="n">
-        <v>409.8033385187866</v>
+        <v>409.8033385187861</v>
       </c>
       <c r="H35" t="n">
         <v>283.1540821444137</v>
@@ -3424,22 +3424,22 @@
         <v>179.8319801819373</v>
       </c>
       <c r="C37" t="n">
-        <v>167.2468210986278</v>
+        <v>0</v>
       </c>
       <c r="D37" t="n">
-        <v>0</v>
+        <v>148.6154730182124</v>
       </c>
       <c r="E37" t="n">
         <v>0</v>
       </c>
       <c r="F37" t="n">
-        <v>0</v>
+        <v>145.4210480229312</v>
       </c>
       <c r="G37" t="n">
-        <v>165.5241382922688</v>
+        <v>121.8000472740329</v>
       </c>
       <c r="H37" t="n">
-        <v>83.06560892428055</v>
+        <v>0</v>
       </c>
       <c r="I37" t="n">
         <v>0</v>
@@ -3484,7 +3484,7 @@
         <v>252.137643323828</v>
       </c>
       <c r="W37" t="n">
-        <v>286.5229983365923</v>
+        <v>286.522998336591</v>
       </c>
       <c r="X37" t="n">
         <v>225.7096553890372</v>
@@ -3551,7 +3551,7 @@
         <v>0</v>
       </c>
       <c r="S38" t="n">
-        <v>83.7025149569553</v>
+        <v>83.70251495695528</v>
       </c>
       <c r="T38" t="n">
         <v>199.0222304576161</v>
@@ -3661,10 +3661,10 @@
         <v>179.8319801819373</v>
       </c>
       <c r="C40" t="n">
-        <v>110.0177171766856</v>
+        <v>167.2468210986278</v>
       </c>
       <c r="D40" t="n">
-        <v>0</v>
+        <v>1.799772605716619</v>
       </c>
       <c r="E40" t="n">
         <v>0</v>
@@ -3676,10 +3676,10 @@
         <v>165.5241382922688</v>
       </c>
       <c r="H40" t="n">
-        <v>140.2947128462239</v>
+        <v>0</v>
       </c>
       <c r="I40" t="n">
-        <v>0</v>
+        <v>81.26583631856552</v>
       </c>
       <c r="J40" t="n">
         <v>0</v>
@@ -3706,7 +3706,7 @@
         <v>0</v>
       </c>
       <c r="R40" t="n">
-        <v>66.37524671012169</v>
+        <v>66.37524671012166</v>
       </c>
       <c r="S40" t="n">
         <v>181.0262860016446</v>
@@ -3749,7 +3749,7 @@
         <v>381.9303700722618</v>
       </c>
       <c r="F41" t="n">
-        <v>406.8760457417114</v>
+        <v>406.8760457417118</v>
       </c>
       <c r="G41" t="n">
         <v>409.8033385187866</v>
@@ -3788,7 +3788,7 @@
         <v>0</v>
       </c>
       <c r="S41" t="n">
-        <v>83.7025149569553</v>
+        <v>83.70251495695528</v>
       </c>
       <c r="T41" t="n">
         <v>199.0222304576161</v>
@@ -3901,22 +3901,22 @@
         <v>167.2468210986278</v>
       </c>
       <c r="D43" t="n">
-        <v>0</v>
+        <v>20.88994825141623</v>
       </c>
       <c r="E43" t="n">
-        <v>0</v>
+        <v>146.4339626465692</v>
       </c>
       <c r="F43" t="n">
         <v>0</v>
       </c>
       <c r="G43" t="n">
-        <v>108.2950343703266</v>
+        <v>0</v>
       </c>
       <c r="H43" t="n">
-        <v>140.2947128462239</v>
+        <v>0</v>
       </c>
       <c r="I43" t="n">
-        <v>0</v>
+        <v>81.26583631856552</v>
       </c>
       <c r="J43" t="n">
         <v>0</v>
@@ -3943,7 +3943,7 @@
         <v>0</v>
       </c>
       <c r="R43" t="n">
-        <v>66.37524671012169</v>
+        <v>66.37524671012166</v>
       </c>
       <c r="S43" t="n">
         <v>181.0262860016446</v>
@@ -4025,7 +4025,7 @@
         <v>0</v>
       </c>
       <c r="S44" t="n">
-        <v>83.7025149569553</v>
+        <v>83.70251495695528</v>
       </c>
       <c r="T44" t="n">
         <v>199.0222304576161</v>
@@ -4132,7 +4132,7 @@
         </is>
       </c>
       <c r="B46" t="n">
-        <v>179.8319801819373</v>
+        <v>0</v>
       </c>
       <c r="C46" t="n">
         <v>167.2468210986278</v>
@@ -4141,19 +4141,19 @@
         <v>0</v>
       </c>
       <c r="E46" t="n">
-        <v>0</v>
+        <v>146.4339626465692</v>
       </c>
       <c r="F46" t="n">
-        <v>0</v>
+        <v>145.4210480229312</v>
       </c>
       <c r="G46" t="n">
-        <v>165.5241382922688</v>
+        <v>0</v>
       </c>
       <c r="H46" t="n">
-        <v>83.06560892428168</v>
+        <v>140.2947128462239</v>
       </c>
       <c r="I46" t="n">
-        <v>0</v>
+        <v>62.6472505928856</v>
       </c>
       <c r="J46" t="n">
         <v>0</v>
@@ -4180,7 +4180,7 @@
         <v>0</v>
       </c>
       <c r="R46" t="n">
-        <v>66.37524671012169</v>
+        <v>0</v>
       </c>
       <c r="S46" t="n">
         <v>181.0262860016446</v>
@@ -4304,22 +4304,22 @@
         </is>
       </c>
       <c r="B2" t="n">
-        <v>1026.041751680663</v>
+        <v>918.0161179218655</v>
       </c>
       <c r="C2" t="n">
-        <v>1026.041751680663</v>
+        <v>844.329830759459</v>
       </c>
       <c r="D2" t="n">
-        <v>667.7760530739126</v>
+        <v>844.329830759459</v>
       </c>
       <c r="E2" t="n">
-        <v>667.7760530739126</v>
+        <v>844.329830759459</v>
       </c>
       <c r="F2" t="n">
-        <v>533.3251860078259</v>
+        <v>837.3843300102556</v>
       </c>
       <c r="G2" t="n">
-        <v>117.6204357321147</v>
+        <v>421.6795797345444</v>
       </c>
       <c r="H2" t="n">
         <v>117.6204357321147</v>
@@ -4331,10 +4331,10 @@
         <v>187.5281822362817</v>
       </c>
       <c r="K2" t="n">
-        <v>442.5171852816086</v>
+        <v>442.5171852816082</v>
       </c>
       <c r="L2" t="n">
-        <v>795.7553530872917</v>
+        <v>795.7553530872915</v>
       </c>
       <c r="M2" t="n">
         <v>1220.470313923562</v>
@@ -4355,25 +4355,25 @@
         <v>2562.339328400155</v>
       </c>
       <c r="S2" t="n">
-        <v>2562.339328400155</v>
+        <v>2437.640120926626</v>
       </c>
       <c r="T2" t="n">
-        <v>2353.59368700598</v>
+        <v>2228.894479532451</v>
       </c>
       <c r="U2" t="n">
-        <v>2100.01262627016</v>
+        <v>1975.31341879663</v>
       </c>
       <c r="V2" t="n">
-        <v>1768.949738926589</v>
+        <v>1644.250531453059</v>
       </c>
       <c r="W2" t="n">
-        <v>1416.181083656475</v>
+        <v>1291.481876182945</v>
       </c>
       <c r="X2" t="n">
-        <v>1416.181083656475</v>
+        <v>918.0161179218655</v>
       </c>
       <c r="Y2" t="n">
-        <v>1026.041751680663</v>
+        <v>918.0161179218655</v>
       </c>
     </row>
     <row r="3">
@@ -4383,25 +4383,25 @@
         </is>
       </c>
       <c r="B3" t="n">
-        <v>931.3041410966384</v>
+        <v>931.3041410966389</v>
       </c>
       <c r="C3" t="n">
-        <v>756.8511118155114</v>
+        <v>756.8511118155119</v>
       </c>
       <c r="D3" t="n">
-        <v>607.9167021542601</v>
+        <v>607.9167021542605</v>
       </c>
       <c r="E3" t="n">
-        <v>448.6792471488045</v>
+        <v>448.679247148805</v>
       </c>
       <c r="F3" t="n">
-        <v>302.1446891756896</v>
+        <v>302.14468917569</v>
       </c>
       <c r="G3" t="n">
-        <v>165.443278618252</v>
+        <v>165.4432786182522</v>
       </c>
       <c r="H3" t="n">
-        <v>71.67401812057901</v>
+        <v>71.67401812057918</v>
       </c>
       <c r="I3" t="n">
         <v>51.24678656800311</v>
@@ -4410,25 +4410,25 @@
         <v>238.4273302370161</v>
       </c>
       <c r="K3" t="n">
-        <v>423.148951518066</v>
+        <v>684.9695361605188</v>
       </c>
       <c r="L3" t="n">
-        <v>717.8525085495377</v>
+        <v>1092.885047004312</v>
       </c>
       <c r="M3" t="n">
-        <v>1081.114527508758</v>
+        <v>1456.147065963532</v>
       </c>
       <c r="N3" t="n">
-        <v>1468.399656105703</v>
+        <v>1843.432194560478</v>
       </c>
       <c r="O3" t="n">
-        <v>2102.578639884741</v>
+        <v>2175.502629736639</v>
       </c>
       <c r="P3" t="n">
-        <v>2447.023413292609</v>
+        <v>2422.685363568936</v>
       </c>
       <c r="Q3" t="n">
-        <v>2562.339328400155</v>
+        <v>2538.001278676482</v>
       </c>
       <c r="R3" t="n">
         <v>2562.339328400155</v>
@@ -4440,16 +4440,16 @@
         <v>2232.610846175226</v>
       </c>
       <c r="U3" t="n">
-        <v>2004.520742047137</v>
+        <v>2004.520742047138</v>
       </c>
       <c r="V3" t="n">
         <v>1769.368633815395</v>
       </c>
       <c r="W3" t="n">
-        <v>1515.131277087193</v>
+        <v>1515.131277087194</v>
       </c>
       <c r="X3" t="n">
-        <v>1307.27977688166</v>
+        <v>1307.279776881661</v>
       </c>
       <c r="Y3" t="n">
         <v>1099.519478116707</v>
@@ -4462,22 +4462,22 @@
         </is>
       </c>
       <c r="B4" t="n">
-        <v>918.7469765594642</v>
+        <v>303.9918807365201</v>
       </c>
       <c r="C4" t="n">
-        <v>918.7469765594642</v>
+        <v>303.9918807365201</v>
       </c>
       <c r="D4" t="n">
-        <v>768.6303371471284</v>
+        <v>303.9918807365201</v>
       </c>
       <c r="E4" t="n">
-        <v>620.7172435647353</v>
+        <v>303.9918807365201</v>
       </c>
       <c r="F4" t="n">
-        <v>473.8272960668249</v>
+        <v>157.1019332386098</v>
       </c>
       <c r="G4" t="n">
-        <v>305.8408313751036</v>
+        <v>157.1019332386098</v>
       </c>
       <c r="H4" t="n">
         <v>157.1019332386098</v>
@@ -4486,25 +4486,25 @@
         <v>51.24678656800311</v>
       </c>
       <c r="J4" t="n">
-        <v>76.71595955312198</v>
+        <v>76.71595955312199</v>
       </c>
       <c r="K4" t="n">
         <v>248.4064713020475</v>
       </c>
       <c r="L4" t="n">
-        <v>523.6376499693233</v>
+        <v>523.6376499693234</v>
       </c>
       <c r="M4" t="n">
-        <v>824.2194607096585</v>
+        <v>824.2194607096587</v>
       </c>
       <c r="N4" t="n">
         <v>1123.088724245823</v>
       </c>
       <c r="O4" t="n">
-        <v>1383.126566999034</v>
+        <v>1383.126566999035</v>
       </c>
       <c r="P4" t="n">
-        <v>1582.113182171023</v>
+        <v>1582.113182171024</v>
       </c>
       <c r="Q4" t="n">
         <v>1636.446120074497</v>
@@ -4513,25 +4513,25 @@
         <v>1636.446120074497</v>
       </c>
       <c r="S4" t="n">
-        <v>1439.817372234358</v>
+        <v>1439.817372234359</v>
       </c>
       <c r="T4" t="n">
-        <v>1439.817372234358</v>
+        <v>1216.838891429094</v>
       </c>
       <c r="U4" t="n">
-        <v>1439.817372234358</v>
+        <v>927.7205539329318</v>
       </c>
       <c r="V4" t="n">
-        <v>1321.188020533234</v>
+        <v>673.036065727045</v>
       </c>
       <c r="W4" t="n">
-        <v>1321.188020533234</v>
+        <v>673.036065727045</v>
       </c>
       <c r="X4" t="n">
-        <v>1321.188020533234</v>
+        <v>485.6403455667598</v>
       </c>
       <c r="Y4" t="n">
-        <v>1100.395441389704</v>
+        <v>485.6403455667598</v>
       </c>
     </row>
     <row r="5">
@@ -4541,37 +4541,37 @@
         </is>
       </c>
       <c r="B5" t="n">
-        <v>1500.22751757712</v>
+        <v>1589.988596769088</v>
       </c>
       <c r="C5" t="n">
-        <v>1131.265000636709</v>
+        <v>1221.026079828677</v>
       </c>
       <c r="D5" t="n">
-        <v>772.9993020299582</v>
+        <v>1221.026079828677</v>
       </c>
       <c r="E5" t="n">
-        <v>387.211049431714</v>
+        <v>835.2378272304325</v>
       </c>
       <c r="F5" t="n">
-        <v>380.2655486825105</v>
+        <v>828.292326481229</v>
       </c>
       <c r="G5" t="n">
-        <v>51.24678656800311</v>
+        <v>412.5875762055178</v>
       </c>
       <c r="H5" t="n">
-        <v>51.24678656800311</v>
+        <v>108.5284322030881</v>
       </c>
       <c r="I5" t="n">
         <v>51.24678656800311</v>
       </c>
       <c r="J5" t="n">
-        <v>187.528182236282</v>
+        <v>187.5281822362817</v>
       </c>
       <c r="K5" t="n">
         <v>442.5171852816081</v>
       </c>
       <c r="L5" t="n">
-        <v>795.7553530872914</v>
+        <v>795.7553530872913</v>
       </c>
       <c r="M5" t="n">
         <v>1220.470313923562</v>
@@ -4592,25 +4592,25 @@
         <v>2562.339328400155</v>
       </c>
       <c r="S5" t="n">
-        <v>2437.640120926626</v>
+        <v>2562.339328400155</v>
       </c>
       <c r="T5" t="n">
-        <v>2437.640120926626</v>
+        <v>2353.59368700598</v>
       </c>
       <c r="U5" t="n">
-        <v>2184.059060190805</v>
+        <v>2353.59368700598</v>
       </c>
       <c r="V5" t="n">
-        <v>1852.996172847234</v>
+        <v>2353.59368700598</v>
       </c>
       <c r="W5" t="n">
-        <v>1500.22751757712</v>
+        <v>2353.59368700598</v>
       </c>
       <c r="X5" t="n">
-        <v>1500.22751757712</v>
+        <v>1980.1279287449</v>
       </c>
       <c r="Y5" t="n">
-        <v>1500.22751757712</v>
+        <v>1589.988596769088</v>
       </c>
     </row>
     <row r="6">
@@ -4644,28 +4644,28 @@
         <v>51.24678656800311</v>
       </c>
       <c r="J6" t="n">
-        <v>113.5972052500113</v>
+        <v>238.4273302370161</v>
       </c>
       <c r="K6" t="n">
-        <v>298.3188265310613</v>
+        <v>423.148951518066</v>
       </c>
       <c r="L6" t="n">
-        <v>593.0223835625329</v>
+        <v>717.8525085495377</v>
       </c>
       <c r="M6" t="n">
-        <v>956.284402521753</v>
+        <v>1081.114527508758</v>
       </c>
       <c r="N6" t="n">
-        <v>1343.569531118698</v>
+        <v>1468.399656105703</v>
       </c>
       <c r="O6" t="n">
-        <v>1977.748514897737</v>
+        <v>2102.578639884741</v>
       </c>
       <c r="P6" t="n">
-        <v>2224.931248730034</v>
+        <v>2447.023413292609</v>
       </c>
       <c r="Q6" t="n">
-        <v>2538.001278676482</v>
+        <v>2562.339328400155</v>
       </c>
       <c r="R6" t="n">
         <v>2562.339328400155</v>
@@ -4699,22 +4699,22 @@
         </is>
       </c>
       <c r="B7" t="n">
-        <v>834.9380653188541</v>
+        <v>349.2765195627319</v>
       </c>
       <c r="C7" t="n">
-        <v>666.0018823909472</v>
+        <v>349.2765195627319</v>
       </c>
       <c r="D7" t="n">
-        <v>515.8852429786115</v>
+        <v>199.1598801503962</v>
       </c>
       <c r="E7" t="n">
-        <v>367.9721493962184</v>
+        <v>51.24678656800311</v>
       </c>
       <c r="F7" t="n">
-        <v>367.9721493962184</v>
+        <v>51.24678656800311</v>
       </c>
       <c r="G7" t="n">
-        <v>199.9856847044969</v>
+        <v>51.24678656800311</v>
       </c>
       <c r="H7" t="n">
         <v>51.24678656800311</v>
@@ -4747,28 +4747,28 @@
         <v>1636.446120074497</v>
       </c>
       <c r="R7" t="n">
-        <v>1636.446120074497</v>
+        <v>1538.490223146467</v>
       </c>
       <c r="S7" t="n">
-        <v>1636.446120074497</v>
+        <v>1341.861475306328</v>
       </c>
       <c r="T7" t="n">
-        <v>1595.122037682217</v>
+        <v>1341.861475306328</v>
       </c>
       <c r="U7" t="n">
-        <v>1306.003700186054</v>
+        <v>1052.743137810166</v>
       </c>
       <c r="V7" t="n">
-        <v>1306.003700186054</v>
+        <v>798.0586496042794</v>
       </c>
       <c r="W7" t="n">
-        <v>1016.586530149094</v>
+        <v>798.0586496042794</v>
       </c>
       <c r="X7" t="n">
-        <v>1016.586530149094</v>
+        <v>570.069098706262</v>
       </c>
       <c r="Y7" t="n">
-        <v>1016.586530149094</v>
+        <v>349.2765195627319</v>
       </c>
     </row>
     <row r="8">
@@ -4778,19 +4778,19 @@
         </is>
       </c>
       <c r="B8" t="n">
-        <v>2345.167438673965</v>
+        <v>1308.370295943748</v>
       </c>
       <c r="C8" t="n">
-        <v>1976.204921733553</v>
+        <v>939.4077790033361</v>
       </c>
       <c r="D8" t="n">
-        <v>1617.939223126803</v>
+        <v>809.8584150459947</v>
       </c>
       <c r="E8" t="n">
-        <v>1232.150970528558</v>
+        <v>424.0701624477504</v>
       </c>
       <c r="F8" t="n">
-        <v>821.1650657389509</v>
+        <v>417.1246616985469</v>
       </c>
       <c r="G8" t="n">
         <v>406.0926155839475</v>
@@ -4802,16 +4802,16 @@
         <v>66.51211643218342</v>
       </c>
       <c r="J8" t="n">
-        <v>255.3912473912088</v>
+        <v>255.3912473912087</v>
       </c>
       <c r="K8" t="n">
-        <v>589.2106210810551</v>
+        <v>589.2106210810553</v>
       </c>
       <c r="L8" t="n">
         <v>1040.244834329464</v>
       </c>
       <c r="M8" t="n">
-        <v>1573.776739001388</v>
+        <v>1573.776739001389</v>
       </c>
       <c r="N8" t="n">
         <v>2120.555556060171</v>
@@ -4829,25 +4829,25 @@
         <v>3325.605821609171</v>
       </c>
       <c r="S8" t="n">
-        <v>3325.605821609171</v>
+        <v>3215.315153136266</v>
       </c>
       <c r="T8" t="n">
-        <v>3325.605821609171</v>
+        <v>3009.337405520488</v>
       </c>
       <c r="U8" t="n">
-        <v>3325.605821609171</v>
+        <v>2755.806928794324</v>
       </c>
       <c r="V8" t="n">
-        <v>3325.605821609171</v>
+        <v>2424.744041450754</v>
       </c>
       <c r="W8" t="n">
-        <v>3105.233036999167</v>
+        <v>2071.975386180639</v>
       </c>
       <c r="X8" t="n">
-        <v>2731.767278738087</v>
+        <v>1698.50962791956</v>
       </c>
       <c r="Y8" t="n">
-        <v>2731.767278738087</v>
+        <v>1308.370295943748</v>
       </c>
     </row>
     <row r="9">
@@ -4857,40 +4857,40 @@
         </is>
       </c>
       <c r="B9" t="n">
-        <v>941.5438544811082</v>
+        <v>941.5438544811091</v>
       </c>
       <c r="C9" t="n">
-        <v>767.0908251999812</v>
+        <v>767.0908251999821</v>
       </c>
       <c r="D9" t="n">
-        <v>618.15641553873</v>
+        <v>618.1564155387309</v>
       </c>
       <c r="E9" t="n">
-        <v>458.9189605332745</v>
+        <v>458.9189605332754</v>
       </c>
       <c r="F9" t="n">
-        <v>312.3844025601595</v>
+        <v>312.3844025601604</v>
       </c>
       <c r="G9" t="n">
-        <v>176.021302392778</v>
+        <v>176.0213023927783</v>
       </c>
       <c r="H9" t="n">
-        <v>85.51940803064554</v>
+        <v>85.51940803064583</v>
       </c>
       <c r="I9" t="n">
         <v>66.51211643218342</v>
       </c>
       <c r="J9" t="n">
-        <v>160.189385922801</v>
+        <v>160.1893859228007</v>
       </c>
       <c r="K9" t="n">
-        <v>398.4535849031481</v>
+        <v>398.4535849031479</v>
       </c>
       <c r="L9" t="n">
-        <v>765.1517452158135</v>
+        <v>765.1517452158137</v>
       </c>
       <c r="M9" t="n">
-        <v>1212.428070438129</v>
+        <v>1212.42807043813</v>
       </c>
       <c r="N9" t="n">
         <v>1685.951113992584</v>
@@ -4899,34 +4899,34 @@
         <v>2096.912393410639</v>
       </c>
       <c r="P9" t="n">
-        <v>2407.411984886741</v>
+        <v>2407.411984886742</v>
       </c>
       <c r="Q9" t="n">
-        <v>2565.053542533341</v>
+        <v>2565.053542533342</v>
       </c>
       <c r="R9" t="n">
-        <v>2564.909189125856</v>
+        <v>2564.909189125857</v>
       </c>
       <c r="S9" t="n">
-        <v>2435.471302619336</v>
+        <v>2435.471302619337</v>
       </c>
       <c r="T9" t="n">
-        <v>2242.828302297192</v>
+        <v>2242.828302297193</v>
       </c>
       <c r="U9" t="n">
-        <v>2014.760455431607</v>
+        <v>2014.760455431608</v>
       </c>
       <c r="V9" t="n">
-        <v>1779.608347199865</v>
+        <v>1779.608347199866</v>
       </c>
       <c r="W9" t="n">
-        <v>1525.370990471663</v>
+        <v>1525.370990471664</v>
       </c>
       <c r="X9" t="n">
-        <v>1317.51949026613</v>
+        <v>1317.519490266131</v>
       </c>
       <c r="Y9" t="n">
-        <v>1109.759191501176</v>
+        <v>1109.759191501177</v>
       </c>
     </row>
     <row r="10">
@@ -4936,25 +4936,25 @@
         </is>
       </c>
       <c r="B10" t="n">
-        <v>752.7622949738579</v>
+        <v>380.4321398396066</v>
       </c>
       <c r="C10" t="n">
-        <v>583.826112045951</v>
+        <v>380.4321398396066</v>
       </c>
       <c r="D10" t="n">
-        <v>433.7094726336153</v>
+        <v>380.4321398396066</v>
       </c>
       <c r="E10" t="n">
-        <v>285.7963790512222</v>
+        <v>380.4321398396066</v>
       </c>
       <c r="F10" t="n">
-        <v>138.9064315533118</v>
+        <v>380.4321398396066</v>
       </c>
       <c r="G10" t="n">
-        <v>138.9064315533118</v>
+        <v>212.7293032143256</v>
       </c>
       <c r="H10" t="n">
-        <v>138.9064315533118</v>
+        <v>66.51211643218342</v>
       </c>
       <c r="I10" t="n">
         <v>66.51211643218342</v>
@@ -4987,25 +4987,25 @@
         <v>1927.294548088493</v>
       </c>
       <c r="S10" t="n">
-        <v>1927.294548088493</v>
+        <v>1884.185410428832</v>
       </c>
       <c r="T10" t="n">
-        <v>1927.294548088493</v>
+        <v>1662.418794998358</v>
       </c>
       <c r="U10" t="n">
-        <v>1927.294548088493</v>
+        <v>1373.315928124002</v>
       </c>
       <c r="V10" t="n">
-        <v>1672.610059882606</v>
+        <v>1118.631439918115</v>
       </c>
       <c r="W10" t="n">
-        <v>1383.192889845645</v>
+        <v>829.2142698811541</v>
       </c>
       <c r="X10" t="n">
-        <v>1155.203338947628</v>
+        <v>601.2247189831368</v>
       </c>
       <c r="Y10" t="n">
-        <v>934.4107598040977</v>
+        <v>380.4321398396066</v>
       </c>
     </row>
     <row r="11">
@@ -5021,28 +5021,28 @@
         <v>1948.813509611463</v>
       </c>
       <c r="D11" t="n">
-        <v>1590.547811004713</v>
+        <v>1590.547811004712</v>
       </c>
       <c r="E11" t="n">
-        <v>1204.759558406469</v>
+        <v>1204.759558406468</v>
       </c>
       <c r="F11" t="n">
-        <v>793.7736536168611</v>
+        <v>793.7736536168607</v>
       </c>
       <c r="G11" t="n">
         <v>379.8308874362686</v>
       </c>
       <c r="H11" t="n">
-        <v>93.81666304797189</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="I11" t="n">
-        <v>95.34095638192596</v>
+        <v>95.34095638192593</v>
       </c>
       <c r="J11" t="n">
         <v>378.1925803111717</v>
       </c>
       <c r="K11" t="n">
-        <v>852.8523611075816</v>
+        <v>852.8523611075807</v>
       </c>
       <c r="L11" t="n">
         <v>1478.611553332388</v>
@@ -5054,34 +5054,34 @@
         <v>2950.898526355938</v>
       </c>
       <c r="O11" t="n">
-        <v>3640.422291068011</v>
+        <v>3640.42229106801</v>
       </c>
       <c r="P11" t="n">
-        <v>4194.413870694709</v>
+        <v>4194.413870694707</v>
       </c>
       <c r="Q11" t="n">
-        <v>4562.265728852256</v>
+        <v>4562.265728852255</v>
       </c>
       <c r="R11" t="n">
-        <v>4690.833152398594</v>
+        <v>4690.833152398593</v>
       </c>
       <c r="S11" t="n">
-        <v>4606.285157492579</v>
+        <v>4606.285157492578</v>
       </c>
       <c r="T11" t="n">
-        <v>4405.252601474785</v>
+        <v>4405.252601474784</v>
       </c>
       <c r="U11" t="n">
         <v>4151.812499466573</v>
       </c>
       <c r="V11" t="n">
-        <v>3820.749612123003</v>
+        <v>3820.749612123002</v>
       </c>
       <c r="W11" t="n">
-        <v>3467.980956852889</v>
+        <v>3467.980956852888</v>
       </c>
       <c r="X11" t="n">
-        <v>3094.515198591809</v>
+        <v>3094.515198591808</v>
       </c>
       <c r="Y11" t="n">
         <v>2704.375866615997</v>
@@ -5103,7 +5103,7 @@
         <v>620.0116743354683</v>
       </c>
       <c r="E12" t="n">
-        <v>460.7742193300129</v>
+        <v>460.7742193300128</v>
       </c>
       <c r="F12" t="n">
         <v>314.2396613568978</v>
@@ -5112,34 +5112,34 @@
         <v>178.4809954028057</v>
       </c>
       <c r="H12" t="n">
-        <v>93.81666304797189</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="I12" t="n">
-        <v>93.81666304797189</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="J12" t="n">
-        <v>243.4633055756266</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="K12" t="n">
-        <v>577.3880777468471</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="L12" t="n">
-        <v>1072.713683962606</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="M12" t="n">
-        <v>1670.092171589158</v>
+        <v>680.0291294438176</v>
       </c>
       <c r="N12" t="n">
-        <v>2297.690135143765</v>
+        <v>1307.627092998424</v>
       </c>
       <c r="O12" t="n">
-        <v>2319.799627685893</v>
+        <v>1859.536823237711</v>
       </c>
       <c r="P12" t="n">
-        <v>2319.799627685893</v>
+        <v>2283.159972732779</v>
       </c>
       <c r="Q12" t="n">
-        <v>2553.061288060775</v>
+        <v>2516.421633107662</v>
       </c>
       <c r="R12" t="n">
         <v>2553.061288060775</v>
@@ -5173,76 +5173,76 @@
         </is>
       </c>
       <c r="B13" t="n">
-        <v>1098.667160263526</v>
+        <v>513.8536007400694</v>
       </c>
       <c r="C13" t="n">
-        <v>929.7309773356194</v>
+        <v>391.8463960427007</v>
       </c>
       <c r="D13" t="n">
-        <v>779.6143379232836</v>
+        <v>241.729756630365</v>
       </c>
       <c r="E13" t="n">
-        <v>631.7012443408905</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="F13" t="n">
-        <v>484.8112968429802</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="G13" t="n">
-        <v>317.6151975578601</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="H13" t="n">
-        <v>175.9033664000583</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="I13" t="n">
-        <v>93.81666304797189</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="J13" t="n">
-        <v>174.0526814782958</v>
+        <v>174.0526814782957</v>
       </c>
       <c r="K13" t="n">
-        <v>435.7419440038345</v>
+        <v>435.7419440038343</v>
       </c>
       <c r="L13" t="n">
-        <v>826.1405381797747</v>
+        <v>826.1405381797745</v>
       </c>
       <c r="M13" t="n">
         <v>1248.150240910809</v>
       </c>
       <c r="N13" t="n">
-        <v>1665.560112570818</v>
+        <v>1665.560112570817</v>
       </c>
       <c r="O13" t="n">
-        <v>2035.089393279803</v>
+        <v>2035.089393279802</v>
       </c>
       <c r="P13" t="n">
         <v>2327.764848853361</v>
       </c>
       <c r="Q13" t="n">
-        <v>2446.963083580261</v>
+        <v>2446.963083580259</v>
       </c>
       <c r="R13" t="n">
-        <v>2446.963083580261</v>
+        <v>2379.917379832661</v>
       </c>
       <c r="S13" t="n">
-        <v>2446.963083580261</v>
+        <v>2197.062545487565</v>
       </c>
       <c r="T13" t="n">
-        <v>2446.963083580261</v>
+        <v>1977.461080510506</v>
       </c>
       <c r="U13" t="n">
-        <v>2157.887856924459</v>
+        <v>1688.385853854704</v>
       </c>
       <c r="V13" t="n">
-        <v>1903.203368718572</v>
+        <v>1433.701365648817</v>
       </c>
       <c r="W13" t="n">
-        <v>1729.097755135313</v>
+        <v>1144.284195611857</v>
       </c>
       <c r="X13" t="n">
-        <v>1501.108204237296</v>
+        <v>916.2946447138393</v>
       </c>
       <c r="Y13" t="n">
-        <v>1280.315625093766</v>
+        <v>695.5020655703091</v>
       </c>
     </row>
     <row r="14">
@@ -5252,43 +5252,43 @@
         </is>
       </c>
       <c r="B14" t="n">
-        <v>2317.776026551875</v>
+        <v>2317.776026551874</v>
       </c>
       <c r="C14" t="n">
-        <v>1948.813509611463</v>
+        <v>1948.813509611462</v>
       </c>
       <c r="D14" t="n">
-        <v>1590.547811004713</v>
+        <v>1590.547811004712</v>
       </c>
       <c r="E14" t="n">
-        <v>1204.759558406469</v>
+        <v>1204.759558406468</v>
       </c>
       <c r="F14" t="n">
-        <v>793.7736536168611</v>
+        <v>793.7736536168609</v>
       </c>
       <c r="G14" t="n">
-        <v>379.8308874362686</v>
+        <v>379.8308874362683</v>
       </c>
       <c r="H14" t="n">
         <v>93.81666304797187</v>
       </c>
       <c r="I14" t="n">
-        <v>95.34095638192593</v>
+        <v>95.34095638192595</v>
       </c>
       <c r="J14" t="n">
-        <v>378.1925803111712</v>
+        <v>378.1925803111715</v>
       </c>
       <c r="K14" t="n">
-        <v>852.8523611075802</v>
+        <v>852.8523611075807</v>
       </c>
       <c r="L14" t="n">
-        <v>1478.611553332386</v>
+        <v>1478.611553332387</v>
       </c>
       <c r="M14" t="n">
-        <v>2206.558663014778</v>
+        <v>2206.558663014779</v>
       </c>
       <c r="N14" t="n">
-        <v>2950.898526355936</v>
+        <v>2950.898526355937</v>
       </c>
       <c r="O14" t="n">
         <v>3640.42229106801</v>
@@ -5309,19 +5309,19 @@
         <v>4405.252601474784</v>
       </c>
       <c r="U14" t="n">
-        <v>4151.812499466573</v>
+        <v>4151.812499466572</v>
       </c>
       <c r="V14" t="n">
-        <v>3820.749612123002</v>
+        <v>3820.749612123001</v>
       </c>
       <c r="W14" t="n">
-        <v>3467.980956852888</v>
+        <v>3467.980956852887</v>
       </c>
       <c r="X14" t="n">
-        <v>3094.515198591808</v>
+        <v>3094.515198591807</v>
       </c>
       <c r="Y14" t="n">
-        <v>2704.375866615997</v>
+        <v>2704.375866615996</v>
       </c>
     </row>
     <row r="15">
@@ -5358,25 +5358,25 @@
         <v>93.81666304797187</v>
       </c>
       <c r="K15" t="n">
-        <v>119.290296770379</v>
+        <v>315.9123021921482</v>
       </c>
       <c r="L15" t="n">
-        <v>119.290296770379</v>
+        <v>315.9123021921482</v>
       </c>
       <c r="M15" t="n">
-        <v>716.6687843969308</v>
+        <v>913.2907898187001</v>
       </c>
       <c r="N15" t="n">
-        <v>1344.266747951538</v>
+        <v>1540.888753373307</v>
       </c>
       <c r="O15" t="n">
-        <v>1896.176478190825</v>
+        <v>2092.798483612594</v>
       </c>
       <c r="P15" t="n">
-        <v>2319.799627685893</v>
+        <v>2516.421633107662</v>
       </c>
       <c r="Q15" t="n">
-        <v>2553.061288060775</v>
+        <v>2516.421633107662</v>
       </c>
       <c r="R15" t="n">
         <v>2553.061288060775</v>
@@ -5410,25 +5410,25 @@
         </is>
       </c>
       <c r="B16" t="n">
-        <v>803.8641191832229</v>
+        <v>513.8536007400712</v>
       </c>
       <c r="C16" t="n">
-        <v>634.927936255316</v>
+        <v>513.8536007400712</v>
       </c>
       <c r="D16" t="n">
-        <v>484.8112968429803</v>
+        <v>363.7369613277355</v>
       </c>
       <c r="E16" t="n">
-        <v>484.8112968429803</v>
+        <v>363.7369613277355</v>
       </c>
       <c r="F16" t="n">
-        <v>484.8112968429803</v>
+        <v>216.8470138298251</v>
       </c>
       <c r="G16" t="n">
-        <v>317.6151975578602</v>
+        <v>216.8470138298251</v>
       </c>
       <c r="H16" t="n">
-        <v>175.9033664000583</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="I16" t="n">
         <v>93.81666304797187</v>
@@ -5473,13 +5473,13 @@
         <v>1433.701365648819</v>
       </c>
       <c r="W16" t="n">
-        <v>1252.64624922477</v>
+        <v>1144.284195611858</v>
       </c>
       <c r="X16" t="n">
-        <v>1024.656698326753</v>
+        <v>916.2946447138411</v>
       </c>
       <c r="Y16" t="n">
-        <v>803.8641191832229</v>
+        <v>695.5020655703109</v>
       </c>
     </row>
     <row r="17">
@@ -5495,13 +5495,13 @@
         <v>1948.813509611463</v>
       </c>
       <c r="D17" t="n">
-        <v>1590.547811004713</v>
+        <v>1590.547811004712</v>
       </c>
       <c r="E17" t="n">
-        <v>1204.759558406469</v>
+        <v>1204.759558406468</v>
       </c>
       <c r="F17" t="n">
-        <v>793.7736536168613</v>
+        <v>793.7736536168607</v>
       </c>
       <c r="G17" t="n">
         <v>379.8308874362686</v>
@@ -5513,10 +5513,10 @@
         <v>95.34095638192595</v>
       </c>
       <c r="J17" t="n">
-        <v>378.1925803111715</v>
+        <v>378.192580311172</v>
       </c>
       <c r="K17" t="n">
-        <v>852.8523611075807</v>
+        <v>852.8523611075813</v>
       </c>
       <c r="L17" t="n">
         <v>1478.611553332387</v>
@@ -5592,28 +5592,28 @@
         <v>93.81666304797187</v>
       </c>
       <c r="J18" t="n">
-        <v>243.4633055756266</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="K18" t="n">
-        <v>243.4633055756266</v>
+        <v>427.7414352191925</v>
       </c>
       <c r="L18" t="n">
-        <v>243.4633055756266</v>
+        <v>923.0670414349511</v>
       </c>
       <c r="M18" t="n">
-        <v>840.8417932021785</v>
+        <v>923.0670414349511</v>
       </c>
       <c r="N18" t="n">
-        <v>1468.439756756785</v>
+        <v>1550.665004989558</v>
       </c>
       <c r="O18" t="n">
-        <v>2020.349486996072</v>
+        <v>1859.536823237711</v>
       </c>
       <c r="P18" t="n">
-        <v>2319.799627685893</v>
+        <v>2283.159972732779</v>
       </c>
       <c r="Q18" t="n">
-        <v>2553.061288060775</v>
+        <v>2516.421633107662</v>
       </c>
       <c r="R18" t="n">
         <v>2553.061288060775</v>
@@ -5647,22 +5647,22 @@
         </is>
       </c>
       <c r="B19" t="n">
-        <v>571.6607764188008</v>
+        <v>513.8536007400712</v>
       </c>
       <c r="C19" t="n">
-        <v>402.7245934908939</v>
+        <v>344.9174178121643</v>
       </c>
       <c r="D19" t="n">
-        <v>402.7245934908939</v>
+        <v>194.8007783998286</v>
       </c>
       <c r="E19" t="n">
-        <v>402.7245934908939</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="F19" t="n">
-        <v>402.7245934908939</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="G19" t="n">
-        <v>235.5284942057738</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="H19" t="n">
         <v>93.81666304797187</v>
@@ -5704,19 +5704,19 @@
         <v>1977.461080510508</v>
       </c>
       <c r="U19" t="n">
-        <v>1746.193029533436</v>
+        <v>1688.385853854706</v>
       </c>
       <c r="V19" t="n">
-        <v>1491.508541327549</v>
+        <v>1433.701365648819</v>
       </c>
       <c r="W19" t="n">
-        <v>1202.091371290588</v>
+        <v>1144.284195611858</v>
       </c>
       <c r="X19" t="n">
-        <v>974.1018203925706</v>
+        <v>916.2946447138411</v>
       </c>
       <c r="Y19" t="n">
-        <v>753.3092412490405</v>
+        <v>695.5020655703109</v>
       </c>
     </row>
     <row r="20">
@@ -5732,13 +5732,13 @@
         <v>1948.813509611463</v>
       </c>
       <c r="D20" t="n">
-        <v>1590.547811004713</v>
+        <v>1590.547811004712</v>
       </c>
       <c r="E20" t="n">
-        <v>1204.759558406469</v>
+        <v>1204.759558406468</v>
       </c>
       <c r="F20" t="n">
-        <v>793.7736536168611</v>
+        <v>793.7736536168607</v>
       </c>
       <c r="G20" t="n">
         <v>379.8308874362686</v>
@@ -5747,22 +5747,22 @@
         <v>93.81666304797187</v>
       </c>
       <c r="I20" t="n">
-        <v>95.34095638192599</v>
+        <v>95.34095638192593</v>
       </c>
       <c r="J20" t="n">
-        <v>378.1925803111715</v>
+        <v>378.1925803111717</v>
       </c>
       <c r="K20" t="n">
-        <v>852.8523611075808</v>
+        <v>852.8523611075807</v>
       </c>
       <c r="L20" t="n">
-        <v>1478.611553332387</v>
+        <v>1478.611553332388</v>
       </c>
       <c r="M20" t="n">
         <v>2206.55866301478</v>
       </c>
       <c r="N20" t="n">
-        <v>2950.898526355937</v>
+        <v>2950.898526355938</v>
       </c>
       <c r="O20" t="n">
         <v>3640.42229106801</v>
@@ -5832,22 +5832,22 @@
         <v>93.81666304797187</v>
       </c>
       <c r="K21" t="n">
-        <v>93.81666304797187</v>
+        <v>427.7414352191925</v>
       </c>
       <c r="L21" t="n">
-        <v>93.81666304797187</v>
+        <v>427.7414352191925</v>
       </c>
       <c r="M21" t="n">
-        <v>691.1951506745238</v>
+        <v>1025.119922845744</v>
       </c>
       <c r="N21" t="n">
-        <v>1307.627092998424</v>
+        <v>1652.717886400351</v>
       </c>
       <c r="O21" t="n">
-        <v>1859.536823237711</v>
+        <v>2204.627616639638</v>
       </c>
       <c r="P21" t="n">
-        <v>2283.159972732779</v>
+        <v>2516.421633107662</v>
       </c>
       <c r="Q21" t="n">
         <v>2516.421633107662</v>
@@ -5884,25 +5884,25 @@
         </is>
       </c>
       <c r="B22" t="n">
-        <v>513.8536007400712</v>
+        <v>513.8536007400699</v>
       </c>
       <c r="C22" t="n">
-        <v>344.9174178121643</v>
+        <v>344.917417812163</v>
       </c>
       <c r="D22" t="n">
-        <v>344.9174178121643</v>
+        <v>344.917417812163</v>
       </c>
       <c r="E22" t="n">
-        <v>344.9174178121643</v>
+        <v>344.917417812163</v>
       </c>
       <c r="F22" t="n">
-        <v>344.9174178121643</v>
+        <v>198.0274703142526</v>
       </c>
       <c r="G22" t="n">
-        <v>235.5284942057738</v>
+        <v>175.9033664000583</v>
       </c>
       <c r="H22" t="n">
-        <v>93.81666304797187</v>
+        <v>175.9033664000583</v>
       </c>
       <c r="I22" t="n">
         <v>93.81666304797187</v>
@@ -5911,49 +5911,49 @@
         <v>174.0526814782957</v>
       </c>
       <c r="K22" t="n">
-        <v>435.7419440038343</v>
+        <v>435.7419440038327</v>
       </c>
       <c r="L22" t="n">
-        <v>826.1405381797745</v>
+        <v>826.1405381797728</v>
       </c>
       <c r="M22" t="n">
-        <v>1248.150240910809</v>
+        <v>1248.150240910807</v>
       </c>
       <c r="N22" t="n">
-        <v>1665.560112570817</v>
+        <v>1665.560112570816</v>
       </c>
       <c r="O22" t="n">
-        <v>2035.089393279802</v>
+        <v>2035.089393279801</v>
       </c>
       <c r="P22" t="n">
-        <v>2327.764848853361</v>
+        <v>2327.76484885336</v>
       </c>
       <c r="Q22" t="n">
-        <v>2446.96308358026</v>
+        <v>2446.963083580259</v>
       </c>
       <c r="R22" t="n">
-        <v>2379.917379832663</v>
+        <v>2379.917379832661</v>
       </c>
       <c r="S22" t="n">
-        <v>2197.062545487567</v>
+        <v>2197.062545487566</v>
       </c>
       <c r="T22" t="n">
-        <v>1977.461080510508</v>
+        <v>1977.461080510507</v>
       </c>
       <c r="U22" t="n">
-        <v>1688.385853854706</v>
+        <v>1688.385853854705</v>
       </c>
       <c r="V22" t="n">
-        <v>1433.701365648819</v>
+        <v>1433.701365648818</v>
       </c>
       <c r="W22" t="n">
-        <v>1144.284195611858</v>
+        <v>1144.284195611857</v>
       </c>
       <c r="X22" t="n">
-        <v>916.2946447138411</v>
+        <v>916.2946447138397</v>
       </c>
       <c r="Y22" t="n">
-        <v>695.5020655703109</v>
+        <v>695.5020655703096</v>
       </c>
     </row>
     <row r="23">
@@ -5987,10 +5987,10 @@
         <v>95.34095638192595</v>
       </c>
       <c r="J23" t="n">
-        <v>378.1925803111715</v>
+        <v>378.192580311172</v>
       </c>
       <c r="K23" t="n">
-        <v>852.8523611075807</v>
+        <v>852.8523611075813</v>
       </c>
       <c r="L23" t="n">
         <v>1478.611553332387</v>
@@ -6002,7 +6002,7 @@
         <v>2950.898526355937</v>
       </c>
       <c r="O23" t="n">
-        <v>3640.422291068009</v>
+        <v>3640.42229106801</v>
       </c>
       <c r="P23" t="n">
         <v>4194.413870694707</v>
@@ -6066,28 +6066,28 @@
         <v>93.81666304797187</v>
       </c>
       <c r="J24" t="n">
-        <v>93.81666304797187</v>
+        <v>150.8995423128889</v>
       </c>
       <c r="K24" t="n">
-        <v>93.81666304797187</v>
+        <v>484.8243144841095</v>
       </c>
       <c r="L24" t="n">
-        <v>93.81666304797187</v>
+        <v>980.1499206998682</v>
       </c>
       <c r="M24" t="n">
-        <v>680.0291294438176</v>
+        <v>1577.52840832642</v>
       </c>
       <c r="N24" t="n">
-        <v>1307.627092998424</v>
+        <v>1577.52840832642</v>
       </c>
       <c r="O24" t="n">
-        <v>1859.536823237711</v>
+        <v>2129.438138565707</v>
       </c>
       <c r="P24" t="n">
-        <v>2283.159972732779</v>
+        <v>2553.061288060775</v>
       </c>
       <c r="Q24" t="n">
-        <v>2516.421633107662</v>
+        <v>2553.061288060775</v>
       </c>
       <c r="R24" t="n">
         <v>2553.061288060775</v>
@@ -6121,25 +6121,25 @@
         </is>
       </c>
       <c r="B25" t="n">
-        <v>513.8536007400712</v>
+        <v>768.5380889459582</v>
       </c>
       <c r="C25" t="n">
-        <v>344.9174178121643</v>
+        <v>599.6019060180513</v>
       </c>
       <c r="D25" t="n">
-        <v>344.9174178121643</v>
+        <v>484.8112968429803</v>
       </c>
       <c r="E25" t="n">
-        <v>344.9174178121643</v>
+        <v>484.8112968429803</v>
       </c>
       <c r="F25" t="n">
-        <v>344.9174178121643</v>
+        <v>484.8112968429803</v>
       </c>
       <c r="G25" t="n">
-        <v>177.7213185270443</v>
+        <v>317.6151975578602</v>
       </c>
       <c r="H25" t="n">
-        <v>93.81666304797187</v>
+        <v>175.9033664000583</v>
       </c>
       <c r="I25" t="n">
         <v>93.81666304797187</v>
@@ -6181,16 +6181,16 @@
         <v>1688.385853854706</v>
       </c>
       <c r="V25" t="n">
-        <v>1433.701365648819</v>
+        <v>1688.385853854706</v>
       </c>
       <c r="W25" t="n">
-        <v>1144.284195611858</v>
+        <v>1398.968683817745</v>
       </c>
       <c r="X25" t="n">
-        <v>916.2946447138411</v>
+        <v>1170.979132919728</v>
       </c>
       <c r="Y25" t="n">
-        <v>695.5020655703109</v>
+        <v>950.1865537761979</v>
       </c>
     </row>
     <row r="26">
@@ -6212,31 +6212,31 @@
         <v>1204.759558406469</v>
       </c>
       <c r="F26" t="n">
-        <v>793.7736536168611</v>
+        <v>793.7736536168612</v>
       </c>
       <c r="G26" t="n">
-        <v>379.8308874362683</v>
+        <v>379.8308874362686</v>
       </c>
       <c r="H26" t="n">
-        <v>93.8166630479716</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="I26" t="n">
-        <v>95.34095638192593</v>
+        <v>95.34095638192595</v>
       </c>
       <c r="J26" t="n">
-        <v>378.1925803111717</v>
+        <v>378.1925803111715</v>
       </c>
       <c r="K26" t="n">
         <v>852.8523611075807</v>
       </c>
       <c r="L26" t="n">
-        <v>1478.611553332388</v>
+        <v>1478.611553332387</v>
       </c>
       <c r="M26" t="n">
-        <v>2206.55866301478</v>
+        <v>2206.558663014779</v>
       </c>
       <c r="N26" t="n">
-        <v>2950.898526355938</v>
+        <v>2950.898526355937</v>
       </c>
       <c r="O26" t="n">
         <v>3640.42229106801</v>
@@ -6300,31 +6300,31 @@
         <v>93.81666304797187</v>
       </c>
       <c r="I27" t="n">
-        <v>95.58405025273903</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="J27" t="n">
-        <v>245.2306927803937</v>
+        <v>243.4633055756266</v>
       </c>
       <c r="K27" t="n">
-        <v>579.1554649516142</v>
+        <v>577.3880777468471</v>
       </c>
       <c r="L27" t="n">
-        <v>1074.481071167373</v>
+        <v>943.510265746755</v>
       </c>
       <c r="M27" t="n">
-        <v>1671.859558793925</v>
+        <v>1540.888753373307</v>
       </c>
       <c r="N27" t="n">
-        <v>2299.457522348532</v>
+        <v>1540.888753373307</v>
       </c>
       <c r="O27" t="n">
-        <v>2553.061288060775</v>
+        <v>2092.798483612594</v>
       </c>
       <c r="P27" t="n">
-        <v>2553.061288060775</v>
+        <v>2516.421633107662</v>
       </c>
       <c r="Q27" t="n">
-        <v>2553.061288060775</v>
+        <v>2516.421633107662</v>
       </c>
       <c r="R27" t="n">
         <v>2553.061288060775</v>
@@ -6358,25 +6358,25 @@
         </is>
       </c>
       <c r="B28" t="n">
-        <v>571.6607764188008</v>
+        <v>513.8536007400712</v>
       </c>
       <c r="C28" t="n">
-        <v>402.7245934908939</v>
+        <v>344.9174178121643</v>
       </c>
       <c r="D28" t="n">
-        <v>402.7245934908939</v>
+        <v>344.9174178121643</v>
       </c>
       <c r="E28" t="n">
-        <v>402.7245934908939</v>
+        <v>317.6151975578602</v>
       </c>
       <c r="F28" t="n">
-        <v>402.7245934908939</v>
+        <v>317.6151975578602</v>
       </c>
       <c r="G28" t="n">
-        <v>235.5284942057738</v>
+        <v>317.6151975578602</v>
       </c>
       <c r="H28" t="n">
-        <v>93.81666304797187</v>
+        <v>175.9033664000583</v>
       </c>
       <c r="I28" t="n">
         <v>93.81666304797187</v>
@@ -6418,16 +6418,16 @@
         <v>1688.385853854706</v>
       </c>
       <c r="V28" t="n">
-        <v>1491.508541327549</v>
+        <v>1433.701365648819</v>
       </c>
       <c r="W28" t="n">
-        <v>1202.091371290588</v>
+        <v>1144.284195611858</v>
       </c>
       <c r="X28" t="n">
-        <v>974.1018203925706</v>
+        <v>916.2946447138411</v>
       </c>
       <c r="Y28" t="n">
-        <v>753.3092412490405</v>
+        <v>695.5020655703109</v>
       </c>
     </row>
     <row r="29">
@@ -6546,22 +6546,22 @@
         <v>579.1554649516142</v>
       </c>
       <c r="L30" t="n">
-        <v>1074.481071167373</v>
+        <v>710.2486053718725</v>
       </c>
       <c r="M30" t="n">
-        <v>1671.859558793925</v>
+        <v>1307.627092998424</v>
       </c>
       <c r="N30" t="n">
-        <v>2299.457522348532</v>
+        <v>1307.627092998424</v>
       </c>
       <c r="O30" t="n">
-        <v>2553.061288060775</v>
+        <v>1859.536823237711</v>
       </c>
       <c r="P30" t="n">
-        <v>2553.061288060775</v>
+        <v>2283.159972732779</v>
       </c>
       <c r="Q30" t="n">
-        <v>2553.061288060775</v>
+        <v>2516.421633107662</v>
       </c>
       <c r="R30" t="n">
         <v>2553.061288060775</v>
@@ -6595,25 +6595,25 @@
         </is>
       </c>
       <c r="B31" t="n">
-        <v>513.8536007400712</v>
+        <v>702.4944101284095</v>
       </c>
       <c r="C31" t="n">
-        <v>484.8112968429803</v>
+        <v>533.5582272005026</v>
       </c>
       <c r="D31" t="n">
-        <v>484.8112968429803</v>
+        <v>383.4415877881669</v>
       </c>
       <c r="E31" t="n">
-        <v>484.8112968429803</v>
+        <v>235.5284942057738</v>
       </c>
       <c r="F31" t="n">
-        <v>484.8112968429803</v>
+        <v>235.5284942057738</v>
       </c>
       <c r="G31" t="n">
-        <v>317.6151975578602</v>
+        <v>235.5284942057738</v>
       </c>
       <c r="H31" t="n">
-        <v>175.9033664000583</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="I31" t="n">
         <v>93.81666304797187</v>
@@ -6664,7 +6664,7 @@
         <v>916.2946447138411</v>
       </c>
       <c r="Y31" t="n">
-        <v>695.5020655703109</v>
+        <v>884.1428749586493</v>
       </c>
     </row>
     <row r="32">
@@ -6686,28 +6686,28 @@
         <v>1204.759558406469</v>
       </c>
       <c r="F32" t="n">
-        <v>793.7736536168611</v>
+        <v>793.7736536168613</v>
       </c>
       <c r="G32" t="n">
-        <v>379.8308874362686</v>
+        <v>379.8308874362683</v>
       </c>
       <c r="H32" t="n">
         <v>93.81666304797187</v>
       </c>
       <c r="I32" t="n">
-        <v>95.34095638192599</v>
+        <v>95.3409563819265</v>
       </c>
       <c r="J32" t="n">
-        <v>378.1925803111715</v>
+        <v>378.192580311172</v>
       </c>
       <c r="K32" t="n">
-        <v>852.8523611075805</v>
+        <v>852.8523611075813</v>
       </c>
       <c r="L32" t="n">
         <v>1478.611553332387</v>
       </c>
       <c r="M32" t="n">
-        <v>2206.558663014778</v>
+        <v>2206.558663014779</v>
       </c>
       <c r="N32" t="n">
         <v>2950.898526355937</v>
@@ -6783,22 +6783,22 @@
         <v>579.1554649516142</v>
       </c>
       <c r="L33" t="n">
-        <v>1074.481071167373</v>
+        <v>634.5603720565526</v>
       </c>
       <c r="M33" t="n">
-        <v>1671.859558793925</v>
+        <v>1231.938859683105</v>
       </c>
       <c r="N33" t="n">
-        <v>2299.457522348532</v>
+        <v>1859.536823237711</v>
       </c>
       <c r="O33" t="n">
-        <v>2553.061288060775</v>
+        <v>1859.536823237711</v>
       </c>
       <c r="P33" t="n">
-        <v>2553.061288060775</v>
+        <v>2283.159972732779</v>
       </c>
       <c r="Q33" t="n">
-        <v>2553.061288060775</v>
+        <v>2516.421633107662</v>
       </c>
       <c r="R33" t="n">
         <v>2553.061288060775</v>
@@ -6832,22 +6832,22 @@
         </is>
       </c>
       <c r="B34" t="n">
-        <v>513.8536007400712</v>
+        <v>554.5813165460164</v>
       </c>
       <c r="C34" t="n">
-        <v>344.9174178121643</v>
+        <v>385.6451336181095</v>
       </c>
       <c r="D34" t="n">
-        <v>344.9174178121643</v>
+        <v>235.5284942057738</v>
       </c>
       <c r="E34" t="n">
-        <v>344.9174178121643</v>
+        <v>235.5284942057738</v>
       </c>
       <c r="F34" t="n">
-        <v>344.9174178121643</v>
+        <v>235.5284942057738</v>
       </c>
       <c r="G34" t="n">
-        <v>177.7213185270443</v>
+        <v>235.5284942057738</v>
       </c>
       <c r="H34" t="n">
         <v>93.81666304797187</v>
@@ -6920,10 +6920,10 @@
         <v>1590.547811004712</v>
       </c>
       <c r="E35" t="n">
-        <v>1204.759558406469</v>
+        <v>1204.759558406468</v>
       </c>
       <c r="F35" t="n">
-        <v>793.7736536168611</v>
+        <v>793.7736536168607</v>
       </c>
       <c r="G35" t="n">
         <v>379.8308874362686</v>
@@ -6932,22 +6932,22 @@
         <v>93.81666304797187</v>
       </c>
       <c r="I35" t="n">
-        <v>95.34095638192593</v>
+        <v>95.34095638192599</v>
       </c>
       <c r="J35" t="n">
-        <v>378.1925803111712</v>
+        <v>378.1925803111717</v>
       </c>
       <c r="K35" t="n">
-        <v>852.8523611075802</v>
+        <v>852.8523611075807</v>
       </c>
       <c r="L35" t="n">
-        <v>1478.611553332386</v>
+        <v>1478.611553332388</v>
       </c>
       <c r="M35" t="n">
-        <v>2206.558663014778</v>
+        <v>2206.55866301478</v>
       </c>
       <c r="N35" t="n">
-        <v>2950.898526355936</v>
+        <v>2950.898526355938</v>
       </c>
       <c r="O35" t="n">
         <v>3640.42229106801</v>
@@ -7014,22 +7014,22 @@
         <v>93.81666304797187</v>
       </c>
       <c r="J36" t="n">
-        <v>93.81666304797187</v>
+        <v>243.4633055756266</v>
       </c>
       <c r="K36" t="n">
-        <v>93.81666304797187</v>
+        <v>243.4633055756266</v>
       </c>
       <c r="L36" t="n">
-        <v>93.81666304797187</v>
+        <v>738.7889117913853</v>
       </c>
       <c r="M36" t="n">
-        <v>680.0291294438176</v>
+        <v>1336.167399417937</v>
       </c>
       <c r="N36" t="n">
-        <v>1307.627092998424</v>
+        <v>1731.250242493492</v>
       </c>
       <c r="O36" t="n">
-        <v>1859.536823237711</v>
+        <v>2283.159972732779</v>
       </c>
       <c r="P36" t="n">
         <v>2283.159972732779</v>
@@ -7069,22 +7069,22 @@
         </is>
       </c>
       <c r="B37" t="n">
-        <v>513.8536007400701</v>
+        <v>513.8536007400694</v>
       </c>
       <c r="C37" t="n">
-        <v>344.9174178121632</v>
+        <v>513.8536007400694</v>
       </c>
       <c r="D37" t="n">
-        <v>344.9174178121632</v>
+        <v>363.7369613277336</v>
       </c>
       <c r="E37" t="n">
-        <v>344.9174178121632</v>
+        <v>363.7369613277336</v>
       </c>
       <c r="F37" t="n">
-        <v>344.9174178121632</v>
+        <v>216.8470138298233</v>
       </c>
       <c r="G37" t="n">
-        <v>177.7213185270431</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="H37" t="n">
         <v>93.81666304797187</v>
@@ -7093,52 +7093,52 @@
         <v>93.81666304797187</v>
       </c>
       <c r="J37" t="n">
-        <v>174.0526814782957</v>
+        <v>174.052681478294</v>
       </c>
       <c r="K37" t="n">
-        <v>435.7419440038343</v>
+        <v>435.7419440038326</v>
       </c>
       <c r="L37" t="n">
-        <v>826.1405381797745</v>
+        <v>826.1405381797726</v>
       </c>
       <c r="M37" t="n">
-        <v>1248.150240910809</v>
+        <v>1248.150240910807</v>
       </c>
       <c r="N37" t="n">
-        <v>1665.560112570817</v>
+        <v>1665.560112570816</v>
       </c>
       <c r="O37" t="n">
-        <v>2035.089393279802</v>
+        <v>2035.089393279801</v>
       </c>
       <c r="P37" t="n">
-        <v>2327.764848853361</v>
+        <v>2327.764848853359</v>
       </c>
       <c r="Q37" t="n">
-        <v>2446.96308358026</v>
+        <v>2446.963083580259</v>
       </c>
       <c r="R37" t="n">
-        <v>2379.917379832663</v>
+        <v>2379.917379832661</v>
       </c>
       <c r="S37" t="n">
-        <v>2197.062545487567</v>
+        <v>2197.062545487565</v>
       </c>
       <c r="T37" t="n">
-        <v>1977.461080510508</v>
+        <v>1977.461080510506</v>
       </c>
       <c r="U37" t="n">
-        <v>1688.385853854706</v>
+        <v>1688.385853854704</v>
       </c>
       <c r="V37" t="n">
-        <v>1433.701365648819</v>
+        <v>1433.701365648817</v>
       </c>
       <c r="W37" t="n">
         <v>1144.284195611857</v>
       </c>
       <c r="X37" t="n">
-        <v>916.2946447138399</v>
+        <v>916.2946447138393</v>
       </c>
       <c r="Y37" t="n">
-        <v>695.5020655703098</v>
+        <v>695.5020655703091</v>
       </c>
     </row>
     <row r="38">
@@ -7163,19 +7163,19 @@
         <v>793.7736536168612</v>
       </c>
       <c r="G38" t="n">
-        <v>379.8308874362687</v>
+        <v>379.8308874362686</v>
       </c>
       <c r="H38" t="n">
         <v>93.81666304797187</v>
       </c>
       <c r="I38" t="n">
-        <v>95.34095638192595</v>
+        <v>95.34095638192598</v>
       </c>
       <c r="J38" t="n">
-        <v>378.1925803111715</v>
+        <v>378.1925803111716</v>
       </c>
       <c r="K38" t="n">
-        <v>852.8523611075807</v>
+        <v>852.8523611075809</v>
       </c>
       <c r="L38" t="n">
         <v>1478.611553332387</v>
@@ -7184,13 +7184,13 @@
         <v>2206.558663014779</v>
       </c>
       <c r="N38" t="n">
-        <v>2950.898526355937</v>
+        <v>2950.898526355938</v>
       </c>
       <c r="O38" t="n">
-        <v>3640.42229106801</v>
+        <v>3640.422291068011</v>
       </c>
       <c r="P38" t="n">
-        <v>4194.413870694707</v>
+        <v>4194.413870694708</v>
       </c>
       <c r="Q38" t="n">
         <v>4562.265728852255</v>
@@ -7254,25 +7254,25 @@
         <v>93.81666304797187</v>
       </c>
       <c r="K39" t="n">
-        <v>93.81666304797187</v>
+        <v>427.7414352191925</v>
       </c>
       <c r="L39" t="n">
-        <v>93.81666304797187</v>
+        <v>923.0670414349513</v>
       </c>
       <c r="M39" t="n">
-        <v>680.0291294438176</v>
+        <v>923.0670414349513</v>
       </c>
       <c r="N39" t="n">
-        <v>1307.627092998424</v>
+        <v>1550.665004989558</v>
       </c>
       <c r="O39" t="n">
-        <v>1859.536823237711</v>
+        <v>2102.574735228845</v>
       </c>
       <c r="P39" t="n">
-        <v>2283.159972732779</v>
+        <v>2526.197884723913</v>
       </c>
       <c r="Q39" t="n">
-        <v>2516.421633107662</v>
+        <v>2526.197884723913</v>
       </c>
       <c r="R39" t="n">
         <v>2553.061288060775</v>
@@ -7306,76 +7306,76 @@
         </is>
       </c>
       <c r="B40" t="n">
-        <v>513.8536007400712</v>
+        <v>513.8536007400717</v>
       </c>
       <c r="C40" t="n">
-        <v>402.7245934908939</v>
+        <v>344.9174178121648</v>
       </c>
       <c r="D40" t="n">
-        <v>402.7245934908939</v>
+        <v>343.0994656851783</v>
       </c>
       <c r="E40" t="n">
-        <v>402.7245934908939</v>
+        <v>343.0994656851783</v>
       </c>
       <c r="F40" t="n">
-        <v>402.7245934908939</v>
+        <v>343.0994656851783</v>
       </c>
       <c r="G40" t="n">
-        <v>235.5284942057738</v>
+        <v>175.9033664000582</v>
       </c>
       <c r="H40" t="n">
-        <v>93.81666304797187</v>
+        <v>175.9033664000582</v>
       </c>
       <c r="I40" t="n">
         <v>93.81666304797187</v>
       </c>
       <c r="J40" t="n">
-        <v>174.0526814782957</v>
+        <v>174.0526814782958</v>
       </c>
       <c r="K40" t="n">
-        <v>435.7419440038343</v>
+        <v>435.7419440038345</v>
       </c>
       <c r="L40" t="n">
-        <v>826.1405381797745</v>
+        <v>826.1405381797747</v>
       </c>
       <c r="M40" t="n">
         <v>1248.150240910809</v>
       </c>
       <c r="N40" t="n">
-        <v>1665.560112570817</v>
+        <v>1665.560112570818</v>
       </c>
       <c r="O40" t="n">
-        <v>2035.089393279802</v>
+        <v>2035.089393279803</v>
       </c>
       <c r="P40" t="n">
         <v>2327.764848853361</v>
       </c>
       <c r="Q40" t="n">
-        <v>2446.96308358026</v>
+        <v>2446.963083580261</v>
       </c>
       <c r="R40" t="n">
         <v>2379.917379832663</v>
       </c>
       <c r="S40" t="n">
-        <v>2197.062545487567</v>
+        <v>2197.062545487568</v>
       </c>
       <c r="T40" t="n">
-        <v>1977.461080510508</v>
+        <v>1977.461080510509</v>
       </c>
       <c r="U40" t="n">
-        <v>1688.385853854706</v>
+        <v>1688.385853854707</v>
       </c>
       <c r="V40" t="n">
-        <v>1433.701365648819</v>
+        <v>1433.70136564882</v>
       </c>
       <c r="W40" t="n">
-        <v>1144.284195611858</v>
+        <v>1144.284195611859</v>
       </c>
       <c r="X40" t="n">
-        <v>916.2946447138411</v>
+        <v>916.2946447138415</v>
       </c>
       <c r="Y40" t="n">
-        <v>695.5020655703109</v>
+        <v>695.5020655703114</v>
       </c>
     </row>
     <row r="41">
@@ -7388,7 +7388,7 @@
         <v>2317.776026551875</v>
       </c>
       <c r="C41" t="n">
-        <v>1948.813509611463</v>
+        <v>1948.813509611464</v>
       </c>
       <c r="D41" t="n">
         <v>1590.547811004713</v>
@@ -7397,22 +7397,22 @@
         <v>1204.759558406469</v>
       </c>
       <c r="F41" t="n">
-        <v>793.7736536168613</v>
+        <v>793.7736536168611</v>
       </c>
       <c r="G41" t="n">
-        <v>379.8308874362683</v>
+        <v>379.8308874362686</v>
       </c>
       <c r="H41" t="n">
-        <v>93.81666304797187</v>
+        <v>93.81666304797189</v>
       </c>
       <c r="I41" t="n">
-        <v>95.34095638192595</v>
+        <v>95.34095638192503</v>
       </c>
       <c r="J41" t="n">
-        <v>378.1925803111715</v>
+        <v>378.1925803111712</v>
       </c>
       <c r="K41" t="n">
-        <v>852.8523611075813</v>
+        <v>852.8523611075811</v>
       </c>
       <c r="L41" t="n">
         <v>1478.611553332387</v>
@@ -7421,37 +7421,37 @@
         <v>2206.558663014779</v>
       </c>
       <c r="N41" t="n">
-        <v>2950.898526355937</v>
+        <v>2950.898526355938</v>
       </c>
       <c r="O41" t="n">
-        <v>3640.42229106801</v>
+        <v>3640.422291068011</v>
       </c>
       <c r="P41" t="n">
-        <v>4194.413870694707</v>
+        <v>4194.413870694708</v>
       </c>
       <c r="Q41" t="n">
-        <v>4562.265728852255</v>
+        <v>4562.265728852256</v>
       </c>
       <c r="R41" t="n">
-        <v>4690.833152398593</v>
+        <v>4690.833152398594</v>
       </c>
       <c r="S41" t="n">
-        <v>4606.285157492578</v>
+        <v>4606.285157492579</v>
       </c>
       <c r="T41" t="n">
-        <v>4405.252601474784</v>
+        <v>4405.252601474785</v>
       </c>
       <c r="U41" t="n">
-        <v>4151.812499466573</v>
+        <v>4151.812499466574</v>
       </c>
       <c r="V41" t="n">
-        <v>3820.749612123002</v>
+        <v>3820.749612123003</v>
       </c>
       <c r="W41" t="n">
-        <v>3467.980956852888</v>
+        <v>3467.980956852889</v>
       </c>
       <c r="X41" t="n">
-        <v>3094.515198591808</v>
+        <v>3094.515198591809</v>
       </c>
       <c r="Y41" t="n">
         <v>2704.375866615997</v>
@@ -7473,7 +7473,7 @@
         <v>620.0116743354683</v>
       </c>
       <c r="E42" t="n">
-        <v>460.7742193300128</v>
+        <v>460.7742193300129</v>
       </c>
       <c r="F42" t="n">
         <v>314.2396613568978</v>
@@ -7482,34 +7482,34 @@
         <v>178.4809954028057</v>
       </c>
       <c r="H42" t="n">
-        <v>93.81666304797187</v>
+        <v>93.81666304797189</v>
       </c>
       <c r="I42" t="n">
-        <v>93.81666304797187</v>
+        <v>93.81666304797189</v>
       </c>
       <c r="J42" t="n">
-        <v>93.81666304797187</v>
+        <v>243.4633055756266</v>
       </c>
       <c r="K42" t="n">
-        <v>93.81666304797187</v>
+        <v>577.3880777468471</v>
       </c>
       <c r="L42" t="n">
-        <v>93.81666304797187</v>
+        <v>671.2000270096656</v>
       </c>
       <c r="M42" t="n">
-        <v>680.0291294438176</v>
+        <v>1268.578514636218</v>
       </c>
       <c r="N42" t="n">
-        <v>1307.627092998424</v>
+        <v>1896.176478190824</v>
       </c>
       <c r="O42" t="n">
-        <v>1859.536823237711</v>
+        <v>1896.176478190824</v>
       </c>
       <c r="P42" t="n">
-        <v>2283.159972732779</v>
+        <v>2319.799627685893</v>
       </c>
       <c r="Q42" t="n">
-        <v>2516.421633107662</v>
+        <v>2553.061288060775</v>
       </c>
       <c r="R42" t="n">
         <v>2553.061288060775</v>
@@ -7543,76 +7543,76 @@
         </is>
       </c>
       <c r="B43" t="n">
-        <v>513.8536007400712</v>
+        <v>513.8536007400717</v>
       </c>
       <c r="C43" t="n">
-        <v>344.9174178121643</v>
+        <v>344.9174178121648</v>
       </c>
       <c r="D43" t="n">
-        <v>344.9174178121643</v>
+        <v>323.8164599824514</v>
       </c>
       <c r="E43" t="n">
-        <v>344.9174178121643</v>
+        <v>175.9033664000583</v>
       </c>
       <c r="F43" t="n">
-        <v>344.9174178121643</v>
+        <v>175.9033664000583</v>
       </c>
       <c r="G43" t="n">
-        <v>235.5284942057738</v>
+        <v>175.9033664000583</v>
       </c>
       <c r="H43" t="n">
-        <v>93.81666304797187</v>
+        <v>175.9033664000583</v>
       </c>
       <c r="I43" t="n">
-        <v>93.81666304797187</v>
+        <v>93.81666304797189</v>
       </c>
       <c r="J43" t="n">
-        <v>174.0526814782957</v>
+        <v>174.0526814782958</v>
       </c>
       <c r="K43" t="n">
-        <v>435.7419440038343</v>
+        <v>435.7419440038345</v>
       </c>
       <c r="L43" t="n">
-        <v>826.1405381797745</v>
+        <v>826.1405381797747</v>
       </c>
       <c r="M43" t="n">
         <v>1248.150240910809</v>
       </c>
       <c r="N43" t="n">
-        <v>1665.560112570817</v>
+        <v>1665.560112570818</v>
       </c>
       <c r="O43" t="n">
-        <v>2035.089393279802</v>
+        <v>2035.089393279803</v>
       </c>
       <c r="P43" t="n">
         <v>2327.764848853361</v>
       </c>
       <c r="Q43" t="n">
-        <v>2446.96308358026</v>
+        <v>2446.963083580261</v>
       </c>
       <c r="R43" t="n">
         <v>2379.917379832663</v>
       </c>
       <c r="S43" t="n">
-        <v>2197.062545487567</v>
+        <v>2197.062545487568</v>
       </c>
       <c r="T43" t="n">
-        <v>1977.461080510508</v>
+        <v>1977.461080510509</v>
       </c>
       <c r="U43" t="n">
-        <v>1688.385853854706</v>
+        <v>1688.385853854707</v>
       </c>
       <c r="V43" t="n">
-        <v>1433.701365648819</v>
+        <v>1433.70136564882</v>
       </c>
       <c r="W43" t="n">
-        <v>1144.284195611858</v>
+        <v>1144.284195611859</v>
       </c>
       <c r="X43" t="n">
-        <v>916.2946447138411</v>
+        <v>916.2946447138415</v>
       </c>
       <c r="Y43" t="n">
-        <v>695.5020655703109</v>
+        <v>695.5020655703114</v>
       </c>
     </row>
     <row r="44">
@@ -7637,19 +7637,19 @@
         <v>793.7736536168613</v>
       </c>
       <c r="G44" t="n">
-        <v>379.8308874362687</v>
+        <v>379.8308874362683</v>
       </c>
       <c r="H44" t="n">
         <v>93.81666304797187</v>
       </c>
       <c r="I44" t="n">
-        <v>95.34095638192595</v>
+        <v>95.34095638192598</v>
       </c>
       <c r="J44" t="n">
-        <v>378.1925803111715</v>
+        <v>378.1925803111716</v>
       </c>
       <c r="K44" t="n">
-        <v>852.8523611075807</v>
+        <v>852.8523611075809</v>
       </c>
       <c r="L44" t="n">
         <v>1478.611553332387</v>
@@ -7658,10 +7658,10 @@
         <v>2206.558663014779</v>
       </c>
       <c r="N44" t="n">
-        <v>2950.898526355937</v>
+        <v>2950.898526355938</v>
       </c>
       <c r="O44" t="n">
-        <v>3640.42229106801</v>
+        <v>3640.422291068011</v>
       </c>
       <c r="P44" t="n">
         <v>4194.413870694707</v>
@@ -7722,28 +7722,28 @@
         <v>93.81666304797187</v>
       </c>
       <c r="I45" t="n">
-        <v>93.81666304797187</v>
+        <v>95.58405025273905</v>
       </c>
       <c r="J45" t="n">
-        <v>93.81666304797187</v>
+        <v>245.2306927803938</v>
       </c>
       <c r="K45" t="n">
-        <v>93.81666304797187</v>
+        <v>245.2306927803938</v>
       </c>
       <c r="L45" t="n">
-        <v>93.81666304797187</v>
+        <v>740.5562989961526</v>
       </c>
       <c r="M45" t="n">
-        <v>680.0291294438176</v>
+        <v>1337.934786622704</v>
       </c>
       <c r="N45" t="n">
-        <v>1307.627092998424</v>
+        <v>1965.532750177311</v>
       </c>
       <c r="O45" t="n">
-        <v>1859.536823237711</v>
+        <v>2516.421633107662</v>
       </c>
       <c r="P45" t="n">
-        <v>2283.159972732779</v>
+        <v>2516.421633107662</v>
       </c>
       <c r="Q45" t="n">
         <v>2516.421633107662</v>
@@ -7780,76 +7780,76 @@
         </is>
       </c>
       <c r="B46" t="n">
-        <v>513.8536007400712</v>
+        <v>762.547769317909</v>
       </c>
       <c r="C46" t="n">
-        <v>344.9174178121643</v>
+        <v>593.6115863900021</v>
       </c>
       <c r="D46" t="n">
-        <v>344.9174178121643</v>
+        <v>593.6115863900021</v>
       </c>
       <c r="E46" t="n">
-        <v>344.9174178121643</v>
+        <v>445.698492807609</v>
       </c>
       <c r="F46" t="n">
-        <v>344.9174178121643</v>
+        <v>298.8085453096986</v>
       </c>
       <c r="G46" t="n">
-        <v>177.7213185270443</v>
+        <v>298.8085453096986</v>
       </c>
       <c r="H46" t="n">
-        <v>93.81666304797187</v>
+        <v>157.0967141518967</v>
       </c>
       <c r="I46" t="n">
         <v>93.81666304797187</v>
       </c>
       <c r="J46" t="n">
-        <v>174.0526814782957</v>
+        <v>174.0526814782958</v>
       </c>
       <c r="K46" t="n">
-        <v>435.7419440038343</v>
+        <v>435.7419440038345</v>
       </c>
       <c r="L46" t="n">
-        <v>826.1405381797745</v>
+        <v>826.1405381797747</v>
       </c>
       <c r="M46" t="n">
         <v>1248.150240910809</v>
       </c>
       <c r="N46" t="n">
-        <v>1665.560112570817</v>
+        <v>1665.560112570818</v>
       </c>
       <c r="O46" t="n">
-        <v>2035.089393279802</v>
+        <v>2035.089393279803</v>
       </c>
       <c r="P46" t="n">
         <v>2327.764848853361</v>
       </c>
       <c r="Q46" t="n">
-        <v>2446.96308358026</v>
+        <v>2446.963083580261</v>
       </c>
       <c r="R46" t="n">
-        <v>2379.917379832663</v>
+        <v>2446.963083580261</v>
       </c>
       <c r="S46" t="n">
-        <v>2197.062545487567</v>
+        <v>2264.108249235165</v>
       </c>
       <c r="T46" t="n">
-        <v>1977.461080510508</v>
+        <v>2044.506784258106</v>
       </c>
       <c r="U46" t="n">
-        <v>1688.385853854706</v>
+        <v>1755.431557602304</v>
       </c>
       <c r="V46" t="n">
-        <v>1433.701365648819</v>
+        <v>1500.747069396417</v>
       </c>
       <c r="W46" t="n">
-        <v>1144.284195611858</v>
+        <v>1211.329899359456</v>
       </c>
       <c r="X46" t="n">
-        <v>916.2946447138411</v>
+        <v>983.3403484614391</v>
       </c>
       <c r="Y46" t="n">
-        <v>695.5020655703109</v>
+        <v>762.547769317909</v>
       </c>
     </row>
   </sheetData>
@@ -8058,10 +8058,10 @@
         <v>126.0910353404088</v>
       </c>
       <c r="K3" t="n">
-        <v>0</v>
+        <v>264.4652370125786</v>
       </c>
       <c r="L3" t="n">
-        <v>0</v>
+        <v>114.3555089013352</v>
       </c>
       <c r="M3" t="n">
         <v>0</v>
@@ -8070,16 +8070,16 @@
         <v>0</v>
       </c>
       <c r="O3" t="n">
-        <v>305.1601501039159</v>
+        <v>0</v>
       </c>
       <c r="P3" t="n">
-        <v>98.24448441976887</v>
+        <v>0</v>
       </c>
       <c r="Q3" t="n">
         <v>0</v>
       </c>
       <c r="R3" t="n">
-        <v>20.93778120154991</v>
+        <v>45.52166981132082</v>
       </c>
       <c r="S3" t="n">
         <v>0</v>
@@ -8292,7 +8292,7 @@
         <v>10.12574714858493</v>
       </c>
       <c r="J6" t="n">
-        <v>0</v>
+        <v>126.0910353404088</v>
       </c>
       <c r="K6" t="n">
         <v>0</v>
@@ -8310,13 +8310,13 @@
         <v>305.1601501039159</v>
       </c>
       <c r="P6" t="n">
-        <v>0</v>
+        <v>98.24448441976841</v>
       </c>
       <c r="Q6" t="n">
-        <v>199.7516311504065</v>
+        <v>0</v>
       </c>
       <c r="R6" t="n">
-        <v>45.52166981132082</v>
+        <v>20.93778120154991</v>
       </c>
       <c r="S6" t="n">
         <v>0</v>
@@ -8933,7 +8933,7 @@
         <v>0</v>
       </c>
       <c r="M14" t="n">
-        <v>0</v>
+        <v>4.547473508864641e-13</v>
       </c>
       <c r="N14" t="n">
         <v>0</v>
@@ -9170,7 +9170,7 @@
         <v>0</v>
       </c>
       <c r="M17" t="n">
-        <v>4.547473508864641e-13</v>
+        <v>0</v>
       </c>
       <c r="N17" t="n">
         <v>0</v>
@@ -9659,7 +9659,7 @@
         <v>0</v>
       </c>
       <c r="R23" t="n">
-        <v>4.263256414560601e-13</v>
+        <v>0</v>
       </c>
       <c r="S23" t="n">
         <v>0</v>
@@ -9887,7 +9887,7 @@
         <v>0</v>
       </c>
       <c r="O26" t="n">
-        <v>0</v>
+        <v>2.273736754432321e-13</v>
       </c>
       <c r="P26" t="n">
         <v>0</v>
@@ -10829,7 +10829,7 @@
         <v>0</v>
       </c>
       <c r="M38" t="n">
-        <v>4.547473508864641e-13</v>
+        <v>0</v>
       </c>
       <c r="N38" t="n">
         <v>0</v>
@@ -10841,7 +10841,7 @@
         <v>0</v>
       </c>
       <c r="Q38" t="n">
-        <v>0</v>
+        <v>-5.661529149205321e-13</v>
       </c>
       <c r="R38" t="n">
         <v>0</v>
@@ -23416,7 +23416,7 @@
         <v>0</v>
       </c>
       <c r="C13" t="n">
-        <v>0</v>
+        <v>46.45968844823282</v>
       </c>
       <c r="D13" t="n">
         <v>0</v>
@@ -23425,16 +23425,16 @@
         <v>0</v>
       </c>
       <c r="F13" t="n">
-        <v>0</v>
+        <v>145.4210480229312</v>
       </c>
       <c r="G13" t="n">
-        <v>0</v>
+        <v>165.5241382922688</v>
       </c>
       <c r="H13" t="n">
-        <v>0</v>
+        <v>140.2947128462239</v>
       </c>
       <c r="I13" t="n">
-        <v>0</v>
+        <v>81.26583631856553</v>
       </c>
       <c r="J13" t="n">
         <v>0</v>
@@ -23461,13 +23461,13 @@
         <v>0</v>
       </c>
       <c r="R13" t="n">
-        <v>66.37524671012166</v>
+        <v>0</v>
       </c>
       <c r="S13" t="n">
-        <v>181.0262860016446</v>
+        <v>0</v>
       </c>
       <c r="T13" t="n">
-        <v>217.4054503272883</v>
+        <v>0</v>
       </c>
       <c r="U13" t="n">
         <v>0</v>
@@ -23476,7 +23476,7 @@
         <v>0</v>
       </c>
       <c r="W13" t="n">
-        <v>114.1584408891649</v>
+        <v>0</v>
       </c>
       <c r="X13" t="n">
         <v>0</v>
@@ -23561,7 +23561,7 @@
         <v>0</v>
       </c>
       <c r="Y14" t="n">
-        <v>4.547473508864641e-13</v>
+        <v>0</v>
       </c>
     </row>
     <row r="15">
@@ -23650,10 +23650,10 @@
         </is>
       </c>
       <c r="B16" t="n">
-        <v>179.8319801819373</v>
+        <v>0</v>
       </c>
       <c r="C16" t="n">
-        <v>0</v>
+        <v>167.2468210986278</v>
       </c>
       <c r="D16" t="n">
         <v>0</v>
@@ -23662,16 +23662,16 @@
         <v>146.4339626465692</v>
       </c>
       <c r="F16" t="n">
-        <v>145.4210480229312</v>
+        <v>0</v>
       </c>
       <c r="G16" t="n">
-        <v>0</v>
+        <v>165.5241382922688</v>
       </c>
       <c r="H16" t="n">
-        <v>0</v>
+        <v>18.49466557218919</v>
       </c>
       <c r="I16" t="n">
-        <v>0</v>
+        <v>81.26583631856553</v>
       </c>
       <c r="J16" t="n">
         <v>0</v>
@@ -23713,7 +23713,7 @@
         <v>0</v>
       </c>
       <c r="W16" t="n">
-        <v>107.2784330767828</v>
+        <v>0</v>
       </c>
       <c r="X16" t="n">
         <v>0</v>
@@ -23893,19 +23893,19 @@
         <v>0</v>
       </c>
       <c r="D19" t="n">
-        <v>148.6154730182124</v>
+        <v>0</v>
       </c>
       <c r="E19" t="n">
-        <v>146.4339626465692</v>
+        <v>46.45968844823102</v>
       </c>
       <c r="F19" t="n">
         <v>145.4210480229312</v>
       </c>
       <c r="G19" t="n">
-        <v>0</v>
+        <v>165.5241382922688</v>
       </c>
       <c r="H19" t="n">
-        <v>0</v>
+        <v>140.2947128462239</v>
       </c>
       <c r="I19" t="n">
         <v>81.26583631856553</v>
@@ -23944,7 +23944,7 @@
         <v>0</v>
       </c>
       <c r="U19" t="n">
-        <v>57.22910392194231</v>
+        <v>0</v>
       </c>
       <c r="V19" t="n">
         <v>0</v>
@@ -24136,16 +24136,16 @@
         <v>146.4339626465692</v>
       </c>
       <c r="F22" t="n">
-        <v>145.4210480229312</v>
+        <v>0</v>
       </c>
       <c r="G22" t="n">
-        <v>57.22910392194223</v>
+        <v>143.6212754172165</v>
       </c>
       <c r="H22" t="n">
-        <v>0</v>
+        <v>140.2947128462239</v>
       </c>
       <c r="I22" t="n">
-        <v>81.26583631856553</v>
+        <v>0</v>
       </c>
       <c r="J22" t="n">
         <v>0</v>
@@ -24367,7 +24367,7 @@
         <v>0</v>
       </c>
       <c r="D25" t="n">
-        <v>148.6154730182124</v>
+        <v>34.97276993489203</v>
       </c>
       <c r="E25" t="n">
         <v>146.4339626465692</v>
@@ -24379,10 +24379,10 @@
         <v>0</v>
       </c>
       <c r="H25" t="n">
-        <v>57.22910392194221</v>
+        <v>0</v>
       </c>
       <c r="I25" t="n">
-        <v>81.26583631856553</v>
+        <v>0</v>
       </c>
       <c r="J25" t="n">
         <v>0</v>
@@ -24421,7 +24421,7 @@
         <v>0</v>
       </c>
       <c r="V25" t="n">
-        <v>0</v>
+        <v>252.137643323828</v>
       </c>
       <c r="W25" t="n">
         <v>0</v>
@@ -24607,19 +24607,19 @@
         <v>148.6154730182124</v>
       </c>
       <c r="E28" t="n">
-        <v>146.4339626465692</v>
+        <v>119.4047645948081</v>
       </c>
       <c r="F28" t="n">
         <v>145.4210480229312</v>
       </c>
       <c r="G28" t="n">
-        <v>0</v>
+        <v>165.5241382922688</v>
       </c>
       <c r="H28" t="n">
         <v>0</v>
       </c>
       <c r="I28" t="n">
-        <v>81.26583631856553</v>
+        <v>0</v>
       </c>
       <c r="J28" t="n">
         <v>0</v>
@@ -24658,7 +24658,7 @@
         <v>0</v>
       </c>
       <c r="V28" t="n">
-        <v>57.22910392194228</v>
+        <v>0</v>
       </c>
       <c r="W28" t="n">
         <v>0</v>
@@ -24838,25 +24838,25 @@
         <v>0</v>
       </c>
       <c r="C31" t="n">
-        <v>138.4949402405078</v>
+        <v>0</v>
       </c>
       <c r="D31" t="n">
-        <v>148.6154730182124</v>
+        <v>0</v>
       </c>
       <c r="E31" t="n">
-        <v>146.4339626465692</v>
+        <v>0</v>
       </c>
       <c r="F31" t="n">
         <v>145.4210480229312</v>
       </c>
       <c r="G31" t="n">
-        <v>0</v>
+        <v>165.5241382922688</v>
       </c>
       <c r="H31" t="n">
         <v>0</v>
       </c>
       <c r="I31" t="n">
-        <v>0</v>
+        <v>81.26583631856553</v>
       </c>
       <c r="J31" t="n">
         <v>0</v>
@@ -24904,7 +24904,7 @@
         <v>0</v>
       </c>
       <c r="Y31" t="n">
-        <v>0</v>
+        <v>186.7544012944549</v>
       </c>
     </row>
     <row r="32">
@@ -25072,13 +25072,13 @@
         </is>
       </c>
       <c r="B34" t="n">
-        <v>0</v>
+        <v>40.32043864788571</v>
       </c>
       <c r="C34" t="n">
         <v>0</v>
       </c>
       <c r="D34" t="n">
-        <v>148.6154730182124</v>
+        <v>0</v>
       </c>
       <c r="E34" t="n">
         <v>146.4339626465692</v>
@@ -25087,10 +25087,10 @@
         <v>145.4210480229312</v>
       </c>
       <c r="G34" t="n">
-        <v>0</v>
+        <v>165.5241382922688</v>
       </c>
       <c r="H34" t="n">
-        <v>57.22910392194221</v>
+        <v>0</v>
       </c>
       <c r="I34" t="n">
         <v>81.26583631856553</v>
@@ -25312,22 +25312,22 @@
         <v>0</v>
       </c>
       <c r="C37" t="n">
-        <v>0</v>
+        <v>167.2468210986278</v>
       </c>
       <c r="D37" t="n">
-        <v>148.6154730182124</v>
+        <v>0</v>
       </c>
       <c r="E37" t="n">
         <v>146.4339626465692</v>
       </c>
       <c r="F37" t="n">
-        <v>145.4210480229312</v>
+        <v>0</v>
       </c>
       <c r="G37" t="n">
-        <v>0</v>
+        <v>43.72409101823595</v>
       </c>
       <c r="H37" t="n">
-        <v>57.22910392194333</v>
+        <v>140.2947128462239</v>
       </c>
       <c r="I37" t="n">
         <v>81.26583631856553</v>
@@ -25549,10 +25549,10 @@
         <v>0</v>
       </c>
       <c r="C40" t="n">
-        <v>57.22910392194228</v>
+        <v>0</v>
       </c>
       <c r="D40" t="n">
-        <v>148.6154730182124</v>
+        <v>146.8157004124957</v>
       </c>
       <c r="E40" t="n">
         <v>146.4339626465692</v>
@@ -25564,10 +25564,10 @@
         <v>0</v>
       </c>
       <c r="H40" t="n">
-        <v>0</v>
+        <v>140.2947128462239</v>
       </c>
       <c r="I40" t="n">
-        <v>81.26583631856553</v>
+        <v>0</v>
       </c>
       <c r="J40" t="n">
         <v>0</v>
@@ -25789,22 +25789,22 @@
         <v>0</v>
       </c>
       <c r="D43" t="n">
-        <v>148.6154730182124</v>
+        <v>127.7255247667961</v>
       </c>
       <c r="E43" t="n">
-        <v>146.4339626465692</v>
+        <v>0</v>
       </c>
       <c r="F43" t="n">
         <v>145.4210480229312</v>
       </c>
       <c r="G43" t="n">
-        <v>57.22910392194223</v>
+        <v>165.5241382922688</v>
       </c>
       <c r="H43" t="n">
-        <v>0</v>
+        <v>140.2947128462239</v>
       </c>
       <c r="I43" t="n">
-        <v>81.26583631856553</v>
+        <v>0</v>
       </c>
       <c r="J43" t="n">
         <v>0</v>
@@ -26020,7 +26020,7 @@
         </is>
       </c>
       <c r="B46" t="n">
-        <v>0</v>
+        <v>179.8319801819373</v>
       </c>
       <c r="C46" t="n">
         <v>0</v>
@@ -26029,19 +26029,19 @@
         <v>148.6154730182124</v>
       </c>
       <c r="E46" t="n">
-        <v>146.4339626465692</v>
+        <v>0</v>
       </c>
       <c r="F46" t="n">
-        <v>145.4210480229312</v>
+        <v>0</v>
       </c>
       <c r="G46" t="n">
-        <v>0</v>
+        <v>165.5241382922688</v>
       </c>
       <c r="H46" t="n">
-        <v>57.22910392194221</v>
+        <v>0</v>
       </c>
       <c r="I46" t="n">
-        <v>81.26583631856553</v>
+        <v>18.61858572567992</v>
       </c>
       <c r="J46" t="n">
         <v>0</v>
@@ -26068,7 +26068,7 @@
         <v>0</v>
       </c>
       <c r="R46" t="n">
-        <v>0</v>
+        <v>66.37524671012166</v>
       </c>
       <c r="S46" t="n">
         <v>0</v>
@@ -26147,7 +26147,7 @@
         <v>3</v>
       </c>
       <c r="B5" t="n">
-        <v>835864.480192429</v>
+        <v>835864.4801924287</v>
       </c>
     </row>
     <row r="6">
@@ -26155,7 +26155,7 @@
         <v>4</v>
       </c>
       <c r="B6" t="n">
-        <v>835864.480192429</v>
+        <v>835864.4801924288</v>
       </c>
     </row>
     <row r="7">
@@ -26179,7 +26179,7 @@
         <v>7</v>
       </c>
       <c r="B9" t="n">
-        <v>835864.4801924288</v>
+        <v>835864.4801924289</v>
       </c>
     </row>
     <row r="10">
@@ -26195,7 +26195,7 @@
         <v>9</v>
       </c>
       <c r="B11" t="n">
-        <v>835864.4801924289</v>
+        <v>835864.4801924288</v>
       </c>
     </row>
     <row r="12">
@@ -26219,7 +26219,7 @@
         <v>12</v>
       </c>
       <c r="B14" t="n">
-        <v>835864.4801924288</v>
+        <v>835864.4801924289</v>
       </c>
     </row>
     <row r="15">
@@ -26235,7 +26235,7 @@
         <v>14</v>
       </c>
       <c r="B16" t="n">
-        <v>835864.4801924288</v>
+        <v>835864.4801924289</v>
       </c>
     </row>
   </sheetData>
@@ -26314,46 +26314,46 @@
         <v>595255.2831516049</v>
       </c>
       <c r="C2" t="n">
-        <v>595255.2831516051</v>
+        <v>595255.2831516053</v>
       </c>
       <c r="D2" t="n">
-        <v>595255.2831516056</v>
+        <v>595255.2831516055</v>
       </c>
       <c r="E2" t="n">
         <v>585181.2847752544</v>
       </c>
       <c r="F2" t="n">
+        <v>585181.2847752547</v>
+      </c>
+      <c r="G2" t="n">
+        <v>585181.2847752545</v>
+      </c>
+      <c r="H2" t="n">
         <v>585181.2847752543</v>
       </c>
-      <c r="G2" t="n">
+      <c r="I2" t="n">
+        <v>585181.2847752545</v>
+      </c>
+      <c r="J2" t="n">
         <v>585181.2847752547</v>
-      </c>
-      <c r="H2" t="n">
-        <v>585181.2847752545</v>
-      </c>
-      <c r="I2" t="n">
-        <v>585181.2847752548</v>
-      </c>
-      <c r="J2" t="n">
-        <v>585181.2847752544</v>
       </c>
       <c r="K2" t="n">
         <v>585181.2847752544</v>
       </c>
       <c r="L2" t="n">
+        <v>585181.2847752543</v>
+      </c>
+      <c r="M2" t="n">
+        <v>585181.2847752542</v>
+      </c>
+      <c r="N2" t="n">
         <v>585181.2847752545</v>
       </c>
-      <c r="M2" t="n">
-        <v>585181.2847752545</v>
-      </c>
-      <c r="N2" t="n">
-        <v>585181.2847752547</v>
-      </c>
       <c r="O2" t="n">
-        <v>585181.2847752544</v>
+        <v>585181.2847752543</v>
       </c>
       <c r="P2" t="n">
-        <v>585181.2847752545</v>
+        <v>585181.2847752541</v>
       </c>
     </row>
     <row r="3">
@@ -26363,16 +26363,16 @@
         </is>
       </c>
       <c r="B3" t="n">
-        <v>1114751.783575919</v>
+        <v>1114751.78357592</v>
       </c>
       <c r="C3" t="n">
         <v>0</v>
       </c>
       <c r="D3" t="n">
-        <v>192627.1404403379</v>
+        <v>192627.140440338</v>
       </c>
       <c r="E3" t="n">
-        <v>325412.4618073554</v>
+        <v>325412.4618073552</v>
       </c>
       <c r="F3" t="n">
         <v>0</v>
@@ -26393,13 +26393,13 @@
         <v>0</v>
       </c>
       <c r="L3" t="n">
-        <v>48293.97000819071</v>
+        <v>48293.97000819074</v>
       </c>
       <c r="M3" t="n">
-        <v>85055.0279355119</v>
+        <v>85055.02793551181</v>
       </c>
       <c r="N3" t="n">
-        <v>0</v>
+        <v>1.569592313899193e-10</v>
       </c>
       <c r="O3" t="n">
         <v>0</v>
@@ -26421,25 +26421,25 @@
         <v>136726.2736921025</v>
       </c>
       <c r="D4" t="n">
-        <v>88524.23512810789</v>
+        <v>88524.23512810787</v>
       </c>
       <c r="E4" t="n">
+        <v>9337.200356756592</v>
+      </c>
+      <c r="F4" t="n">
+        <v>9337.200356756603</v>
+      </c>
+      <c r="G4" t="n">
+        <v>9337.200356756613</v>
+      </c>
+      <c r="H4" t="n">
         <v>9337.20035675659</v>
       </c>
-      <c r="F4" t="n">
+      <c r="I4" t="n">
         <v>9337.200356756592</v>
       </c>
-      <c r="G4" t="n">
-        <v>9337.200356756603</v>
-      </c>
-      <c r="H4" t="n">
-        <v>9337.200356756592</v>
-      </c>
-      <c r="I4" t="n">
-        <v>9337.200356756603</v>
-      </c>
       <c r="J4" t="n">
-        <v>9337.20035675659</v>
+        <v>9337.200356756597</v>
       </c>
       <c r="K4" t="n">
         <v>9337.20035675659</v>
@@ -26451,10 +26451,10 @@
         <v>9337.20035675659</v>
       </c>
       <c r="N4" t="n">
-        <v>9337.200356756603</v>
+        <v>9337.200356756563</v>
       </c>
       <c r="O4" t="n">
-        <v>9337.200356756592</v>
+        <v>9337.200356756573</v>
       </c>
       <c r="P4" t="n">
         <v>9337.200356756592</v>
@@ -26519,49 +26519,49 @@
         </is>
       </c>
       <c r="B6" t="n">
-        <v>-749160.5465562617</v>
+        <v>-749160.546556262</v>
       </c>
       <c r="C6" t="n">
-        <v>365591.2370196579</v>
+        <v>365591.2370196581</v>
       </c>
       <c r="D6" t="n">
-        <v>206169.9670217665</v>
+        <v>206169.9670217664</v>
       </c>
       <c r="E6" t="n">
-        <v>149309.0927872353</v>
+        <v>149274.3548617999</v>
       </c>
       <c r="F6" t="n">
-        <v>474721.5545945909</v>
+        <v>474686.8166691553</v>
       </c>
       <c r="G6" t="n">
-        <v>474721.554594591</v>
+        <v>474686.8166691551</v>
       </c>
       <c r="H6" t="n">
-        <v>474721.5545945909</v>
+        <v>474686.8166691549</v>
       </c>
       <c r="I6" t="n">
-        <v>474721.5545945911</v>
+        <v>474686.8166691551</v>
       </c>
       <c r="J6" t="n">
-        <v>307116.3767846082</v>
+        <v>307081.6388591727</v>
       </c>
       <c r="K6" t="n">
-        <v>474721.5545945907</v>
+        <v>474686.816669155</v>
       </c>
       <c r="L6" t="n">
-        <v>426427.5845864001</v>
+        <v>426392.8466609642</v>
       </c>
       <c r="M6" t="n">
-        <v>389666.526659079</v>
+        <v>389631.788733643</v>
       </c>
       <c r="N6" t="n">
-        <v>474721.554594591</v>
+        <v>474686.816669155</v>
       </c>
       <c r="O6" t="n">
-        <v>474721.5545945907</v>
+        <v>474686.8166691549</v>
       </c>
       <c r="P6" t="n">
-        <v>474721.5545945909</v>
+        <v>474686.8166691547</v>
       </c>
     </row>
   </sheetData>
@@ -26735,7 +26735,7 @@
         </is>
       </c>
       <c r="B3" t="n">
-        <v>934.0648921175391</v>
+        <v>934.0648921175392</v>
       </c>
       <c r="C3" t="n">
         <v>934.0648921175391</v>
@@ -26793,10 +26793,10 @@
         <v>640.5848321000389</v>
       </c>
       <c r="D4" t="n">
-        <v>831.4014554022926</v>
+        <v>831.4014554022928</v>
       </c>
       <c r="E4" t="n">
-        <v>1172.708288099649</v>
+        <v>1172.708288099648</v>
       </c>
       <c r="F4" t="n">
         <v>1172.708288099648</v>
@@ -26826,7 +26826,7 @@
         <v>1172.708288099648</v>
       </c>
       <c r="O4" t="n">
-        <v>1172.708288099648</v>
+        <v>1172.708288099649</v>
       </c>
       <c r="P4" t="n">
         <v>1172.708288099648</v>
@@ -26957,7 +26957,7 @@
         </is>
       </c>
       <c r="B3" t="n">
-        <v>934.0648921175391</v>
+        <v>934.0648921175392</v>
       </c>
       <c r="C3" t="n">
         <v>0</v>
@@ -26966,7 +26966,7 @@
         <v>155.7118084757592</v>
       </c>
       <c r="E3" t="n">
-        <v>278.1987997483757</v>
+        <v>278.1987997483754</v>
       </c>
       <c r="F3" t="n">
         <v>0</v>
@@ -26993,7 +26993,7 @@
         <v>0</v>
       </c>
       <c r="N3" t="n">
-        <v>0</v>
+        <v>2.273736754432321e-13</v>
       </c>
       <c r="O3" t="n">
         <v>0</v>
@@ -27015,10 +27015,10 @@
         <v>0</v>
       </c>
       <c r="D4" t="n">
-        <v>190.8166233022538</v>
+        <v>190.8166233022539</v>
       </c>
       <c r="E4" t="n">
-        <v>341.306832697356</v>
+        <v>341.3068326973556</v>
       </c>
       <c r="F4" t="n">
         <v>0</v>
@@ -27039,10 +27039,10 @@
         <v>0</v>
       </c>
       <c r="L4" t="n">
-        <v>190.8166233022538</v>
+        <v>190.8166233022539</v>
       </c>
       <c r="M4" t="n">
-        <v>341.306832697356</v>
+        <v>341.3068326973556</v>
       </c>
       <c r="N4" t="n">
         <v>0</v>
@@ -27261,10 +27261,10 @@
         <v>0</v>
       </c>
       <c r="L4" t="n">
-        <v>190.8166233022538</v>
+        <v>190.8166233022539</v>
       </c>
       <c r="M4" t="n">
-        <v>341.306832697356</v>
+        <v>341.3068326973556</v>
       </c>
       <c r="N4" t="n">
         <v>0</v>
@@ -27379,22 +27379,22 @@
         <v>382.7338416634806</v>
       </c>
       <c r="C2" t="n">
-        <v>365.2728917710076</v>
+        <v>292.3234674802251</v>
       </c>
       <c r="D2" t="n">
-        <v>0</v>
+        <v>354.683041620683</v>
       </c>
       <c r="E2" t="n">
         <v>381.9303700722618</v>
       </c>
       <c r="F2" t="n">
-        <v>273.7696873462855</v>
+        <v>400</v>
       </c>
       <c r="G2" t="n">
         <v>0</v>
       </c>
       <c r="H2" t="n">
-        <v>301.0185525624054</v>
+        <v>0</v>
       </c>
       <c r="I2" t="n">
         <v>0</v>
@@ -27427,7 +27427,7 @@
         <v>0</v>
       </c>
       <c r="S2" t="n">
-        <v>123.4522153987944</v>
+        <v>0</v>
       </c>
       <c r="T2" t="n">
         <v>0</v>
@@ -27442,10 +27442,10 @@
         <v>0</v>
       </c>
       <c r="X2" t="n">
-        <v>369.731100678469</v>
+        <v>0</v>
       </c>
       <c r="Y2" t="n">
-        <v>0</v>
+        <v>386.2379386560536</v>
       </c>
     </row>
     <row r="3">
@@ -27540,19 +27540,19 @@
         <v>167.2468210986278</v>
       </c>
       <c r="D4" t="n">
-        <v>0</v>
+        <v>148.6154730182124</v>
       </c>
       <c r="E4" t="n">
-        <v>0</v>
+        <v>146.4339626465692</v>
       </c>
       <c r="F4" t="n">
         <v>0</v>
       </c>
       <c r="G4" t="n">
-        <v>0</v>
+        <v>166.3066000448042</v>
       </c>
       <c r="H4" t="n">
-        <v>0</v>
+        <v>147.2515091551288</v>
       </c>
       <c r="I4" t="n">
         <v>0</v>
@@ -27588,22 +27588,22 @@
         <v>0</v>
       </c>
       <c r="T4" t="n">
-        <v>220.7486959972119</v>
+        <v>0</v>
       </c>
       <c r="U4" t="n">
-        <v>286.2271541212006</v>
+        <v>0</v>
       </c>
       <c r="V4" t="n">
-        <v>134.694585139715</v>
+        <v>0</v>
       </c>
       <c r="W4" t="n">
         <v>286.522998336591</v>
       </c>
       <c r="X4" t="n">
-        <v>225.7096553890372</v>
+        <v>40.18789243035491</v>
       </c>
       <c r="Y4" t="n">
-        <v>0</v>
+        <v>218.5846533520948</v>
       </c>
     </row>
     <row r="5">
@@ -27619,7 +27619,7 @@
         <v>0</v>
       </c>
       <c r="D5" t="n">
-        <v>0</v>
+        <v>354.683041620683</v>
       </c>
       <c r="E5" t="n">
         <v>0</v>
@@ -27628,13 +27628,13 @@
         <v>400</v>
       </c>
       <c r="G5" t="n">
-        <v>85.81912827959167</v>
+        <v>0</v>
       </c>
       <c r="H5" t="n">
-        <v>301.0185525624054</v>
+        <v>0</v>
       </c>
       <c r="I5" t="n">
-        <v>65.70991267247049</v>
+        <v>9.001083493736331</v>
       </c>
       <c r="J5" t="n">
         <v>0</v>
@@ -27664,25 +27664,25 @@
         <v>0</v>
       </c>
       <c r="S5" t="n">
-        <v>0</v>
+        <v>123.4522153987944</v>
       </c>
       <c r="T5" t="n">
-        <v>206.6581849802338</v>
+        <v>0</v>
       </c>
       <c r="U5" t="n">
-        <v>0</v>
+        <v>251.045250128462</v>
       </c>
       <c r="V5" t="n">
-        <v>0</v>
+        <v>327.7522584701349</v>
       </c>
       <c r="W5" t="n">
-        <v>0</v>
+        <v>349.240968717413</v>
       </c>
       <c r="X5" t="n">
-        <v>369.731100678469</v>
+        <v>0</v>
       </c>
       <c r="Y5" t="n">
-        <v>386.2379386560536</v>
+        <v>0</v>
       </c>
     </row>
     <row r="6">
@@ -27771,10 +27771,10 @@
         </is>
       </c>
       <c r="B7" t="n">
-        <v>0</v>
+        <v>179.8319801819373</v>
       </c>
       <c r="C7" t="n">
-        <v>0</v>
+        <v>167.2468210986278</v>
       </c>
       <c r="D7" t="n">
         <v>0</v>
@@ -27786,10 +27786,10 @@
         <v>145.4210480229312</v>
       </c>
       <c r="G7" t="n">
-        <v>0</v>
+        <v>166.3066000448042</v>
       </c>
       <c r="H7" t="n">
-        <v>0</v>
+        <v>147.2515091551289</v>
       </c>
       <c r="I7" t="n">
         <v>104.7965952039006</v>
@@ -27819,28 +27819,28 @@
         <v>0</v>
       </c>
       <c r="R7" t="n">
-        <v>101.5575724195736</v>
+        <v>4.581234460824248</v>
       </c>
       <c r="S7" t="n">
-        <v>194.6624603617375</v>
+        <v>0</v>
       </c>
       <c r="T7" t="n">
-        <v>179.8378544288544</v>
+        <v>220.7486959972119</v>
       </c>
       <c r="U7" t="n">
         <v>0</v>
       </c>
       <c r="V7" t="n">
-        <v>252.137643323828</v>
+        <v>0</v>
       </c>
       <c r="W7" t="n">
-        <v>0</v>
+        <v>286.522998336591</v>
       </c>
       <c r="X7" t="n">
-        <v>225.7096553890372</v>
+        <v>0</v>
       </c>
       <c r="Y7" t="n">
-        <v>218.5846533520948</v>
+        <v>0</v>
       </c>
     </row>
     <row r="8">
@@ -27850,22 +27850,22 @@
         </is>
       </c>
       <c r="B8" t="n">
-        <v>0</v>
+        <v>382.7338416634806</v>
       </c>
       <c r="C8" t="n">
         <v>0</v>
       </c>
       <c r="D8" t="n">
-        <v>0</v>
+        <v>226.4291713029149</v>
       </c>
       <c r="E8" t="n">
         <v>0</v>
       </c>
       <c r="F8" t="n">
-        <v>0</v>
+        <v>400</v>
       </c>
       <c r="G8" t="n">
-        <v>0</v>
+        <v>400</v>
       </c>
       <c r="H8" t="n">
         <v>0</v>
@@ -27901,25 +27901,25 @@
         <v>0</v>
       </c>
       <c r="S8" t="n">
-        <v>109.1877617881758</v>
+        <v>0</v>
       </c>
       <c r="T8" t="n">
-        <v>203.9179701396201</v>
+        <v>0</v>
       </c>
       <c r="U8" t="n">
-        <v>250.995171958902</v>
+        <v>0</v>
       </c>
       <c r="V8" t="n">
-        <v>327.7522584701349</v>
+        <v>0</v>
       </c>
       <c r="W8" t="n">
-        <v>131.0719119535094</v>
+        <v>0</v>
       </c>
       <c r="X8" t="n">
         <v>0</v>
       </c>
       <c r="Y8" t="n">
-        <v>386.2379386560536</v>
+        <v>0</v>
       </c>
     </row>
     <row r="9">
@@ -28008,28 +28008,28 @@
         </is>
       </c>
       <c r="B10" t="n">
-        <v>0</v>
+        <v>179.8319801819373</v>
       </c>
       <c r="C10" t="n">
-        <v>0</v>
+        <v>167.2468210986278</v>
       </c>
       <c r="D10" t="n">
-        <v>0</v>
+        <v>148.6154730182124</v>
       </c>
       <c r="E10" t="n">
-        <v>0</v>
+        <v>146.4339626465692</v>
       </c>
       <c r="F10" t="n">
-        <v>0</v>
+        <v>145.4210480229312</v>
       </c>
       <c r="G10" t="n">
-        <v>166.0258082590282</v>
+        <v>0</v>
       </c>
       <c r="H10" t="n">
-        <v>144.7550149143208</v>
+        <v>0</v>
       </c>
       <c r="I10" t="n">
-        <v>24.68204843992098</v>
+        <v>96.35242040983809</v>
       </c>
       <c r="J10" t="n">
         <v>0</v>
@@ -28059,13 +28059,13 @@
         <v>88.93215267004733</v>
       </c>
       <c r="S10" t="n">
-        <v>189.7690253314419</v>
+        <v>147.0909790483775</v>
       </c>
       <c r="T10" t="n">
-        <v>219.5489492761692</v>
+        <v>0</v>
       </c>
       <c r="U10" t="n">
-        <v>286.2118382056129</v>
+        <v>0</v>
       </c>
       <c r="V10" t="n">
         <v>0</v>
@@ -28102,7 +28102,7 @@
         <v>0</v>
       </c>
       <c r="G11" t="n">
-        <v>0</v>
+        <v>5.115907697472721e-13</v>
       </c>
       <c r="H11" t="n">
         <v>0</v>
@@ -28290,7 +28290,7 @@
         <v>0</v>
       </c>
       <c r="Q13" t="n">
-        <v>0</v>
+        <v>-1.696776052995119e-12</v>
       </c>
       <c r="R13" t="n">
         <v>0</v>
@@ -28576,7 +28576,7 @@
         <v>0</v>
       </c>
       <c r="G17" t="n">
-        <v>0</v>
+        <v>5.115907697472721e-13</v>
       </c>
       <c r="H17" t="n">
         <v>0</v>
@@ -28813,7 +28813,7 @@
         <v>0</v>
       </c>
       <c r="G20" t="n">
-        <v>0</v>
+        <v>5.115907697472721e-13</v>
       </c>
       <c r="H20" t="n">
         <v>0</v>
@@ -28983,7 +28983,7 @@
         <v>0</v>
       </c>
       <c r="K22" t="n">
-        <v>0</v>
+        <v>-1.696776052995119e-12</v>
       </c>
       <c r="L22" t="n">
         <v>0</v>
@@ -29992,13 +29992,13 @@
         <v>0</v>
       </c>
       <c r="E35" t="n">
-        <v>3.979039320256561e-13</v>
+        <v>0</v>
       </c>
       <c r="F35" t="n">
         <v>0</v>
       </c>
       <c r="G35" t="n">
-        <v>0</v>
+        <v>5.115907697472721e-13</v>
       </c>
       <c r="H35" t="n">
         <v>0</v>
@@ -30165,7 +30165,7 @@
         <v>0</v>
       </c>
       <c r="J37" t="n">
-        <v>0</v>
+        <v>-1.696776052995119e-12</v>
       </c>
       <c r="K37" t="n">
         <v>0</v>
@@ -30469,7 +30469,7 @@
         <v>0</v>
       </c>
       <c r="F41" t="n">
-        <v>0</v>
+        <v>-3.979039320256561e-13</v>
       </c>
       <c r="G41" t="n">
         <v>0</v>
@@ -31042,43 +31042,43 @@
         <v>3.755034742181059</v>
       </c>
       <c r="H2" t="n">
-        <v>38.45624955336178</v>
+        <v>38.45624955336179</v>
       </c>
       <c r="I2" t="n">
         <v>144.7659768979354</v>
       </c>
       <c r="J2" t="n">
-        <v>318.7038799491899</v>
+        <v>318.70387994919</v>
       </c>
       <c r="K2" t="n">
-        <v>477.6545005857142</v>
+        <v>477.6545005857143</v>
       </c>
       <c r="L2" t="n">
-        <v>592.5726450767379</v>
+        <v>592.572645076738</v>
       </c>
       <c r="M2" t="n">
-        <v>659.3512441730003</v>
+        <v>659.3512441730004</v>
       </c>
       <c r="N2" t="n">
-        <v>670.0202366342223</v>
+        <v>670.0202366342224</v>
       </c>
       <c r="O2" t="n">
-        <v>632.6811099166594</v>
+        <v>632.6811099166595</v>
       </c>
       <c r="P2" t="n">
-        <v>539.9786897190644</v>
+        <v>539.9786897190645</v>
       </c>
       <c r="Q2" t="n">
-        <v>405.5015080147051</v>
+        <v>405.5015080147052</v>
       </c>
       <c r="R2" t="n">
-        <v>235.8772011235311</v>
+        <v>235.8772011235312</v>
       </c>
       <c r="S2" t="n">
-        <v>85.56785418745096</v>
+        <v>85.56785418745098</v>
       </c>
       <c r="T2" t="n">
-        <v>16.43766458389759</v>
+        <v>16.4376645838976</v>
       </c>
       <c r="U2" t="n">
         <v>0.3004027793744847</v>
@@ -31121,10 +31121,10 @@
         <v>2.00912071134716</v>
       </c>
       <c r="H3" t="n">
-        <v>19.4038763438002</v>
+        <v>19.40387634380021</v>
       </c>
       <c r="I3" t="n">
-        <v>69.17367361436493</v>
+        <v>69.17367361436494</v>
       </c>
       <c r="J3" t="n">
         <v>189.8178475575841</v>
@@ -31133,7 +31133,7 @@
         <v>324.4289352178438</v>
       </c>
       <c r="L3" t="n">
-        <v>436.2347404177243</v>
+        <v>436.2347404177244</v>
       </c>
       <c r="M3" t="n">
         <v>509.0653662040588</v>
@@ -31142,25 +31142,25 @@
         <v>522.5388116762072</v>
       </c>
       <c r="O3" t="n">
-        <v>478.0209264405674</v>
+        <v>478.0209264405675</v>
       </c>
       <c r="P3" t="n">
         <v>383.6539365378625</v>
       </c>
       <c r="Q3" t="n">
-        <v>256.462496416876</v>
+        <v>256.4624964168761</v>
       </c>
       <c r="R3" t="n">
-        <v>124.741722762414</v>
+        <v>124.7417227624141</v>
       </c>
       <c r="S3" t="n">
-        <v>37.31853601997901</v>
+        <v>37.31853601997902</v>
       </c>
       <c r="T3" t="n">
-        <v>8.098166376000171</v>
+        <v>8.098166376000172</v>
       </c>
       <c r="U3" t="n">
-        <v>0.1321789941675763</v>
+        <v>0.1321789941675764</v>
       </c>
       <c r="V3" t="n">
         <v>0</v>
@@ -31203,7 +31203,7 @@
         <v>14.97566335231072</v>
       </c>
       <c r="I4" t="n">
-        <v>50.6538797233577</v>
+        <v>50.65387972335771</v>
       </c>
       <c r="J4" t="n">
         <v>119.0856174753787</v>
@@ -31218,10 +31218,10 @@
         <v>264.0341136849627</v>
       </c>
       <c r="N4" t="n">
-        <v>257.7559726067958</v>
+        <v>257.7559726067959</v>
       </c>
       <c r="O4" t="n">
-        <v>238.0793597154672</v>
+        <v>238.0793597154673</v>
       </c>
       <c r="P4" t="n">
         <v>203.7180217169137</v>
@@ -31233,13 +31233,13 @@
         <v>75.73581895759585</v>
       </c>
       <c r="S4" t="n">
-        <v>29.35413767523478</v>
+        <v>29.35413767523479</v>
       </c>
       <c r="T4" t="n">
-        <v>7.196893431069561</v>
+        <v>7.196893431069562</v>
       </c>
       <c r="U4" t="n">
-        <v>0.09187523529024984</v>
+        <v>0.09187523529024985</v>
       </c>
       <c r="V4" t="n">
         <v>0</v>
@@ -31750,7 +31750,7 @@
         <v>0</v>
       </c>
       <c r="G11" t="n">
-        <v>5.499398996348434</v>
+        <v>5.499398996348433</v>
       </c>
       <c r="H11" t="n">
         <v>56.32071997135341</v>
@@ -31762,31 +31762,31 @@
         <v>466.7546155663283</v>
       </c>
       <c r="K11" t="n">
-        <v>699.5441750817577</v>
+        <v>699.5441750817575</v>
       </c>
       <c r="L11" t="n">
-        <v>867.8464071162563</v>
+        <v>867.846407116256</v>
       </c>
       <c r="M11" t="n">
-        <v>965.6463440175677</v>
+        <v>965.6463440175675</v>
       </c>
       <c r="N11" t="n">
-        <v>981.2715114159428</v>
+        <v>981.2715114159425</v>
       </c>
       <c r="O11" t="n">
-        <v>926.5868626460029</v>
+        <v>926.5868626460027</v>
       </c>
       <c r="P11" t="n">
-        <v>790.8204499236508</v>
+        <v>790.8204499236507</v>
       </c>
       <c r="Q11" t="n">
-        <v>593.8732233669224</v>
+        <v>593.8732233669223</v>
       </c>
       <c r="R11" t="n">
-        <v>345.4516222043726</v>
+        <v>345.4516222043725</v>
       </c>
       <c r="S11" t="n">
-        <v>125.3175546292901</v>
+        <v>125.31755462929</v>
       </c>
       <c r="T11" t="n">
         <v>24.07361910651528</v>
@@ -31829,49 +31829,49 @@
         <v>0</v>
       </c>
       <c r="G12" t="n">
-        <v>2.94243786865945</v>
+        <v>2.942437868659449</v>
       </c>
       <c r="H12" t="n">
-        <v>28.41775520521101</v>
+        <v>28.417755205211</v>
       </c>
       <c r="I12" t="n">
         <v>99.52238</v>
       </c>
       <c r="J12" t="n">
-        <v>277.9958514420755</v>
+        <v>126.8376266666667</v>
       </c>
       <c r="K12" t="n">
-        <v>475.1391886422586</v>
+        <v>137.841438974359</v>
       </c>
       <c r="L12" t="n">
-        <v>638.8832749473073</v>
+        <v>138.5543797798742</v>
       </c>
       <c r="M12" t="n">
-        <v>745.5466476862122</v>
+        <v>734.2678383622665</v>
       </c>
       <c r="N12" t="n">
-        <v>765.2790490071786</v>
+        <v>765.2790490071785</v>
       </c>
       <c r="O12" t="n">
-        <v>164.9290651940687</v>
+        <v>700.0808204437243</v>
       </c>
       <c r="P12" t="n">
-        <v>133.9744074143302</v>
+        <v>561.8765786214698</v>
       </c>
       <c r="Q12" t="n">
-        <v>375.5996128485291</v>
+        <v>375.599612848529</v>
       </c>
       <c r="R12" t="n">
-        <v>145.679503963964</v>
+        <v>182.6892564418561</v>
       </c>
       <c r="S12" t="n">
-        <v>54.65449286742439</v>
+        <v>54.65449286742438</v>
       </c>
       <c r="T12" t="n">
         <v>11.86008947937734</v>
       </c>
       <c r="U12" t="n">
-        <v>0.1935814387275955</v>
+        <v>0.1935814387275954</v>
       </c>
       <c r="V12" t="n">
         <v>0</v>
@@ -31911,25 +31911,25 @@
         <v>2.466841066189903</v>
       </c>
       <c r="H13" t="n">
-        <v>21.93245966121571</v>
+        <v>21.9324596612157</v>
       </c>
       <c r="I13" t="n">
-        <v>74.18463860869277</v>
+        <v>74.18463860869275</v>
       </c>
       <c r="J13" t="n">
-        <v>174.4056633796262</v>
+        <v>174.4056633796261</v>
       </c>
       <c r="K13" t="n">
-        <v>286.6020802355179</v>
+        <v>286.6020802355178</v>
       </c>
       <c r="L13" t="n">
-        <v>366.7519890588154</v>
+        <v>366.7519890588153</v>
       </c>
       <c r="M13" t="n">
-        <v>386.6885500392046</v>
+        <v>386.6885500392045</v>
       </c>
       <c r="N13" t="n">
-        <v>377.4939606106789</v>
+        <v>377.4939606106788</v>
       </c>
       <c r="O13" t="n">
         <v>348.6767717920058</v>
@@ -31938,19 +31938,19 @@
         <v>298.3532140417315</v>
       </c>
       <c r="Q13" t="n">
-        <v>206.5643005515928</v>
+        <v>206.5643005515927</v>
       </c>
       <c r="R13" t="n">
         <v>110.9181446670478</v>
       </c>
       <c r="S13" t="n">
-        <v>42.99031203532767</v>
+        <v>42.99031203532766</v>
       </c>
       <c r="T13" t="n">
         <v>10.54013910099322</v>
       </c>
       <c r="U13" t="n">
-        <v>0.1345549672467222</v>
+        <v>0.1345549672467221</v>
       </c>
       <c r="V13" t="n">
         <v>0</v>
@@ -32078,7 +32078,7 @@
         <v>126.8376266666667</v>
       </c>
       <c r="K15" t="n">
-        <v>163.5723821283055</v>
+        <v>362.180468412921</v>
       </c>
       <c r="L15" t="n">
         <v>138.5543797798742</v>
@@ -32096,10 +32096,10 @@
         <v>561.8765786214698</v>
       </c>
       <c r="Q15" t="n">
-        <v>375.599612848529</v>
+        <v>139.9817740860215</v>
       </c>
       <c r="R15" t="n">
-        <v>145.679503963964</v>
+        <v>182.6892564418561</v>
       </c>
       <c r="S15" t="n">
         <v>54.65449286742438</v>
@@ -32233,7 +32233,7 @@
         <v>212.0155798067232</v>
       </c>
       <c r="J17" t="n">
-        <v>466.7546155663283</v>
+        <v>466.7546155663288</v>
       </c>
       <c r="K17" t="n">
         <v>699.5441750817575</v>
@@ -32312,31 +32312,31 @@
         <v>99.52238</v>
       </c>
       <c r="J18" t="n">
-        <v>277.9958514420755</v>
+        <v>126.8376266666667</v>
       </c>
       <c r="K18" t="n">
-        <v>137.841438974359</v>
+        <v>475.1391886422585</v>
       </c>
       <c r="L18" t="n">
-        <v>138.5543797798742</v>
+        <v>638.8832749473072</v>
       </c>
       <c r="M18" t="n">
-        <v>745.5466476862121</v>
+        <v>142.1340339220183</v>
       </c>
       <c r="N18" t="n">
         <v>765.2790490071785</v>
       </c>
       <c r="O18" t="n">
-        <v>700.0808204437243</v>
+        <v>454.5879800486398</v>
       </c>
       <c r="P18" t="n">
-        <v>436.4492970000073</v>
+        <v>561.8765786214698</v>
       </c>
       <c r="Q18" t="n">
         <v>375.599612848529</v>
       </c>
       <c r="R18" t="n">
-        <v>145.679503963964</v>
+        <v>182.6892564418561</v>
       </c>
       <c r="S18" t="n">
         <v>54.65449286742438</v>
@@ -32552,7 +32552,7 @@
         <v>126.8376266666667</v>
       </c>
       <c r="K21" t="n">
-        <v>137.841438974359</v>
+        <v>475.1391886422585</v>
       </c>
       <c r="L21" t="n">
         <v>138.5543797798742</v>
@@ -32561,16 +32561,16 @@
         <v>745.5466476862121</v>
       </c>
       <c r="N21" t="n">
-        <v>754.0002396832328</v>
+        <v>765.2790490071785</v>
       </c>
       <c r="O21" t="n">
         <v>700.0808204437243</v>
       </c>
       <c r="P21" t="n">
-        <v>561.8765786214698</v>
+        <v>448.9178583921318</v>
       </c>
       <c r="Q21" t="n">
-        <v>375.599612848529</v>
+        <v>139.9817740860215</v>
       </c>
       <c r="R21" t="n">
         <v>182.6892564418561</v>
@@ -32707,7 +32707,7 @@
         <v>212.0155798067232</v>
       </c>
       <c r="J23" t="n">
-        <v>466.7546155663283</v>
+        <v>466.7546155663288</v>
       </c>
       <c r="K23" t="n">
         <v>699.5441750817575</v>
@@ -32786,19 +32786,19 @@
         <v>99.52238</v>
       </c>
       <c r="J24" t="n">
-        <v>126.8376266666667</v>
+        <v>184.4971006716334</v>
       </c>
       <c r="K24" t="n">
-        <v>137.841438974359</v>
+        <v>475.1391886422585</v>
       </c>
       <c r="L24" t="n">
-        <v>138.5543797798742</v>
+        <v>638.8832749473072</v>
       </c>
       <c r="M24" t="n">
-        <v>734.2678383622665</v>
+        <v>745.5466476862121</v>
       </c>
       <c r="N24" t="n">
-        <v>765.2790490071785</v>
+        <v>131.3417120833333</v>
       </c>
       <c r="O24" t="n">
         <v>700.0808204437243</v>
@@ -32807,10 +32807,10 @@
         <v>561.8765786214698</v>
       </c>
       <c r="Q24" t="n">
-        <v>375.599612848529</v>
+        <v>139.9817740860215</v>
       </c>
       <c r="R24" t="n">
-        <v>182.6892564418561</v>
+        <v>145.679503963964</v>
       </c>
       <c r="S24" t="n">
         <v>54.65449286742438</v>
@@ -33020,7 +33020,7 @@
         <v>28.417755205211</v>
       </c>
       <c r="I27" t="n">
-        <v>101.3076196007749</v>
+        <v>99.52238</v>
       </c>
       <c r="J27" t="n">
         <v>277.9958514420755</v>
@@ -33029,25 +33029,25 @@
         <v>475.1391886422585</v>
       </c>
       <c r="L27" t="n">
-        <v>638.8832749473072</v>
+        <v>508.374771698973</v>
       </c>
       <c r="M27" t="n">
         <v>745.5466476862121</v>
       </c>
       <c r="N27" t="n">
-        <v>765.2790490071785</v>
+        <v>131.3417120833333</v>
       </c>
       <c r="O27" t="n">
-        <v>398.7616643558013</v>
+        <v>700.0808204437243</v>
       </c>
       <c r="P27" t="n">
-        <v>133.9744074143302</v>
+        <v>561.8765786214698</v>
       </c>
       <c r="Q27" t="n">
         <v>139.9817740860215</v>
       </c>
       <c r="R27" t="n">
-        <v>145.679503963964</v>
+        <v>182.6892564418561</v>
       </c>
       <c r="S27" t="n">
         <v>54.65449286742438</v>
@@ -33266,25 +33266,25 @@
         <v>475.1391886422585</v>
       </c>
       <c r="L30" t="n">
-        <v>638.8832749473072</v>
+        <v>270.9716933356906</v>
       </c>
       <c r="M30" t="n">
         <v>745.5466476862121</v>
       </c>
       <c r="N30" t="n">
-        <v>765.2790490071785</v>
+        <v>131.3417120833333</v>
       </c>
       <c r="O30" t="n">
-        <v>398.7616643558013</v>
+        <v>700.0808204437243</v>
       </c>
       <c r="P30" t="n">
-        <v>133.9744074143302</v>
+        <v>561.8765786214698</v>
       </c>
       <c r="Q30" t="n">
-        <v>139.9817740860215</v>
+        <v>375.599612848529</v>
       </c>
       <c r="R30" t="n">
-        <v>145.679503963964</v>
+        <v>182.6892564418561</v>
       </c>
       <c r="S30" t="n">
         <v>54.65449286742438</v>
@@ -33415,7 +33415,7 @@
         <v>56.32071997135341</v>
       </c>
       <c r="I32" t="n">
-        <v>212.0155798067232</v>
+        <v>212.0155798067237</v>
       </c>
       <c r="J32" t="n">
         <v>466.7546155663283</v>
@@ -33503,7 +33503,7 @@
         <v>475.1391886422585</v>
       </c>
       <c r="L33" t="n">
-        <v>638.8832749473072</v>
+        <v>194.5189324111251</v>
       </c>
       <c r="M33" t="n">
         <v>745.5466476862121</v>
@@ -33512,16 +33512,16 @@
         <v>765.2790490071785</v>
       </c>
       <c r="O33" t="n">
-        <v>398.7616643558013</v>
+        <v>142.5962444444444</v>
       </c>
       <c r="P33" t="n">
-        <v>133.9744074143302</v>
+        <v>561.8765786214698</v>
       </c>
       <c r="Q33" t="n">
-        <v>139.9817740860215</v>
+        <v>375.599612848529</v>
       </c>
       <c r="R33" t="n">
-        <v>145.679503963964</v>
+        <v>182.6892564418561</v>
       </c>
       <c r="S33" t="n">
         <v>54.65449286742438</v>
@@ -33734,25 +33734,25 @@
         <v>99.52238</v>
       </c>
       <c r="J36" t="n">
-        <v>126.8376266666667</v>
+        <v>277.9958514420755</v>
       </c>
       <c r="K36" t="n">
         <v>137.841438974359</v>
       </c>
       <c r="L36" t="n">
-        <v>138.5543797798742</v>
+        <v>638.8832749473072</v>
       </c>
       <c r="M36" t="n">
-        <v>734.2678383622665</v>
+        <v>745.5466476862121</v>
       </c>
       <c r="N36" t="n">
-        <v>765.2790490071785</v>
+        <v>530.4152909475304</v>
       </c>
       <c r="O36" t="n">
         <v>700.0808204437243</v>
       </c>
       <c r="P36" t="n">
-        <v>561.8765786214698</v>
+        <v>133.9744074143302</v>
       </c>
       <c r="Q36" t="n">
         <v>375.599612848529</v>
@@ -33883,7 +33883,7 @@
         <v>0</v>
       </c>
       <c r="G38" t="n">
-        <v>5.499398996348433</v>
+        <v>5.499398996348434</v>
       </c>
       <c r="H38" t="n">
         <v>56.32071997135341</v>
@@ -33895,31 +33895,31 @@
         <v>466.7546155663283</v>
       </c>
       <c r="K38" t="n">
-        <v>699.5441750817575</v>
+        <v>699.5441750817577</v>
       </c>
       <c r="L38" t="n">
-        <v>867.846407116256</v>
+        <v>867.8464071162563</v>
       </c>
       <c r="M38" t="n">
-        <v>965.6463440175675</v>
+        <v>965.6463440175677</v>
       </c>
       <c r="N38" t="n">
-        <v>981.2715114159425</v>
+        <v>981.2715114159428</v>
       </c>
       <c r="O38" t="n">
-        <v>926.5868626460027</v>
+        <v>926.5868626460029</v>
       </c>
       <c r="P38" t="n">
-        <v>790.8204499236507</v>
+        <v>790.8204499236508</v>
       </c>
       <c r="Q38" t="n">
-        <v>593.8732233669223</v>
+        <v>593.8732233669224</v>
       </c>
       <c r="R38" t="n">
-        <v>345.4516222043725</v>
+        <v>345.4516222043726</v>
       </c>
       <c r="S38" t="n">
-        <v>125.31755462929</v>
+        <v>125.3175546292901</v>
       </c>
       <c r="T38" t="n">
         <v>24.07361910651528</v>
@@ -33962,10 +33962,10 @@
         <v>0</v>
       </c>
       <c r="G39" t="n">
-        <v>2.942437868659449</v>
+        <v>2.94243786865945</v>
       </c>
       <c r="H39" t="n">
-        <v>28.417755205211</v>
+        <v>28.41775520521101</v>
       </c>
       <c r="I39" t="n">
         <v>99.52238</v>
@@ -33974,37 +33974,37 @@
         <v>126.8376266666667</v>
       </c>
       <c r="K39" t="n">
-        <v>137.841438974359</v>
+        <v>475.1391886422586</v>
       </c>
       <c r="L39" t="n">
-        <v>138.5543797798742</v>
+        <v>638.8832749473073</v>
       </c>
       <c r="M39" t="n">
-        <v>734.2678383622665</v>
+        <v>142.1340339220183</v>
       </c>
       <c r="N39" t="n">
-        <v>765.2790490071785</v>
+        <v>765.2790490071786</v>
       </c>
       <c r="O39" t="n">
-        <v>700.0808204437243</v>
+        <v>700.0808204437244</v>
       </c>
       <c r="P39" t="n">
-        <v>561.8765786214698</v>
+        <v>561.8765786214699</v>
       </c>
       <c r="Q39" t="n">
-        <v>375.599612848529</v>
+        <v>139.9817740860215</v>
       </c>
       <c r="R39" t="n">
-        <v>182.6892564418561</v>
+        <v>172.8142548092788</v>
       </c>
       <c r="S39" t="n">
-        <v>54.65449286742438</v>
+        <v>54.65449286742439</v>
       </c>
       <c r="T39" t="n">
         <v>11.86008947937734</v>
       </c>
       <c r="U39" t="n">
-        <v>0.1935814387275954</v>
+        <v>0.1935814387275955</v>
       </c>
       <c r="V39" t="n">
         <v>0</v>
@@ -34044,25 +34044,25 @@
         <v>2.466841066189903</v>
       </c>
       <c r="H40" t="n">
-        <v>21.9324596612157</v>
+        <v>21.93245966121571</v>
       </c>
       <c r="I40" t="n">
-        <v>74.18463860869275</v>
+        <v>74.18463860869277</v>
       </c>
       <c r="J40" t="n">
-        <v>174.4056633796261</v>
+        <v>174.4056633796262</v>
       </c>
       <c r="K40" t="n">
-        <v>286.6020802355178</v>
+        <v>286.6020802355179</v>
       </c>
       <c r="L40" t="n">
-        <v>366.7519890588153</v>
+        <v>366.7519890588154</v>
       </c>
       <c r="M40" t="n">
-        <v>386.6885500392045</v>
+        <v>386.6885500392046</v>
       </c>
       <c r="N40" t="n">
-        <v>377.4939606106788</v>
+        <v>377.4939606106789</v>
       </c>
       <c r="O40" t="n">
         <v>348.6767717920058</v>
@@ -34071,19 +34071,19 @@
         <v>298.3532140417315</v>
       </c>
       <c r="Q40" t="n">
-        <v>206.5643005515927</v>
+        <v>206.5643005515928</v>
       </c>
       <c r="R40" t="n">
         <v>110.9181446670478</v>
       </c>
       <c r="S40" t="n">
-        <v>42.99031203532766</v>
+        <v>42.99031203532767</v>
       </c>
       <c r="T40" t="n">
         <v>10.54013910099322</v>
       </c>
       <c r="U40" t="n">
-        <v>0.1345549672467221</v>
+        <v>0.1345549672467222</v>
       </c>
       <c r="V40" t="n">
         <v>0</v>
@@ -34120,7 +34120,7 @@
         <v>0</v>
       </c>
       <c r="G41" t="n">
-        <v>5.499398996348433</v>
+        <v>5.499398996348434</v>
       </c>
       <c r="H41" t="n">
         <v>56.32071997135341</v>
@@ -34132,31 +34132,31 @@
         <v>466.7546155663283</v>
       </c>
       <c r="K41" t="n">
-        <v>699.5441750817581</v>
+        <v>699.5441750817577</v>
       </c>
       <c r="L41" t="n">
-        <v>867.846407116256</v>
+        <v>867.8464071162563</v>
       </c>
       <c r="M41" t="n">
-        <v>965.6463440175675</v>
+        <v>965.6463440175677</v>
       </c>
       <c r="N41" t="n">
-        <v>981.2715114159425</v>
+        <v>981.2715114159428</v>
       </c>
       <c r="O41" t="n">
-        <v>926.5868626460027</v>
+        <v>926.5868626460029</v>
       </c>
       <c r="P41" t="n">
-        <v>790.8204499236507</v>
+        <v>790.8204499236508</v>
       </c>
       <c r="Q41" t="n">
-        <v>593.8732233669223</v>
+        <v>593.8732233669224</v>
       </c>
       <c r="R41" t="n">
-        <v>345.4516222043725</v>
+        <v>345.4516222043726</v>
       </c>
       <c r="S41" t="n">
-        <v>125.31755462929</v>
+        <v>125.3175546292901</v>
       </c>
       <c r="T41" t="n">
         <v>24.07361910651528</v>
@@ -34199,49 +34199,49 @@
         <v>0</v>
       </c>
       <c r="G42" t="n">
-        <v>2.942437868659449</v>
+        <v>2.94243786865945</v>
       </c>
       <c r="H42" t="n">
-        <v>28.417755205211</v>
+        <v>28.41775520521101</v>
       </c>
       <c r="I42" t="n">
         <v>99.52238</v>
       </c>
       <c r="J42" t="n">
-        <v>126.8376266666667</v>
+        <v>277.9958514420755</v>
       </c>
       <c r="K42" t="n">
-        <v>137.841438974359</v>
+        <v>475.1391886422586</v>
       </c>
       <c r="L42" t="n">
-        <v>138.5543797798742</v>
+        <v>233.3139244897919</v>
       </c>
       <c r="M42" t="n">
-        <v>734.2678383622665</v>
+        <v>745.5466476862122</v>
       </c>
       <c r="N42" t="n">
-        <v>765.2790490071785</v>
+        <v>765.2790490071786</v>
       </c>
       <c r="O42" t="n">
-        <v>700.0808204437243</v>
+        <v>142.5962444444444</v>
       </c>
       <c r="P42" t="n">
-        <v>561.8765786214698</v>
+        <v>561.8765786214699</v>
       </c>
       <c r="Q42" t="n">
-        <v>375.599612848529</v>
+        <v>375.5996128485291</v>
       </c>
       <c r="R42" t="n">
-        <v>182.6892564418561</v>
+        <v>145.679503963964</v>
       </c>
       <c r="S42" t="n">
-        <v>54.65449286742438</v>
+        <v>54.65449286742439</v>
       </c>
       <c r="T42" t="n">
         <v>11.86008947937734</v>
       </c>
       <c r="U42" t="n">
-        <v>0.1935814387275954</v>
+        <v>0.1935814387275955</v>
       </c>
       <c r="V42" t="n">
         <v>0</v>
@@ -34281,25 +34281,25 @@
         <v>2.466841066189903</v>
       </c>
       <c r="H43" t="n">
-        <v>21.9324596612157</v>
+        <v>21.93245966121571</v>
       </c>
       <c r="I43" t="n">
-        <v>74.18463860869275</v>
+        <v>74.18463860869277</v>
       </c>
       <c r="J43" t="n">
-        <v>174.4056633796261</v>
+        <v>174.4056633796262</v>
       </c>
       <c r="K43" t="n">
-        <v>286.6020802355178</v>
+        <v>286.6020802355179</v>
       </c>
       <c r="L43" t="n">
-        <v>366.7519890588153</v>
+        <v>366.7519890588154</v>
       </c>
       <c r="M43" t="n">
-        <v>386.6885500392045</v>
+        <v>386.6885500392046</v>
       </c>
       <c r="N43" t="n">
-        <v>377.4939606106788</v>
+        <v>377.4939606106789</v>
       </c>
       <c r="O43" t="n">
         <v>348.6767717920058</v>
@@ -34308,19 +34308,19 @@
         <v>298.3532140417315</v>
       </c>
       <c r="Q43" t="n">
-        <v>206.5643005515927</v>
+        <v>206.5643005515928</v>
       </c>
       <c r="R43" t="n">
         <v>110.9181446670478</v>
       </c>
       <c r="S43" t="n">
-        <v>42.99031203532766</v>
+        <v>42.99031203532767</v>
       </c>
       <c r="T43" t="n">
         <v>10.54013910099322</v>
       </c>
       <c r="U43" t="n">
-        <v>0.1345549672467221</v>
+        <v>0.1345549672467222</v>
       </c>
       <c r="V43" t="n">
         <v>0</v>
@@ -34357,7 +34357,7 @@
         <v>0</v>
       </c>
       <c r="G44" t="n">
-        <v>5.499398996348433</v>
+        <v>5.499398996348434</v>
       </c>
       <c r="H44" t="n">
         <v>56.32071997135341</v>
@@ -34369,31 +34369,31 @@
         <v>466.7546155663283</v>
       </c>
       <c r="K44" t="n">
-        <v>699.5441750817575</v>
+        <v>699.5441750817577</v>
       </c>
       <c r="L44" t="n">
-        <v>867.846407116256</v>
+        <v>867.8464071162563</v>
       </c>
       <c r="M44" t="n">
-        <v>965.6463440175675</v>
+        <v>965.6463440175677</v>
       </c>
       <c r="N44" t="n">
-        <v>981.2715114159425</v>
+        <v>981.2715114159428</v>
       </c>
       <c r="O44" t="n">
         <v>926.5868626460029</v>
       </c>
       <c r="P44" t="n">
-        <v>790.8204499236507</v>
+        <v>790.8204499236497</v>
       </c>
       <c r="Q44" t="n">
-        <v>593.8732233669223</v>
+        <v>593.8732233669224</v>
       </c>
       <c r="R44" t="n">
-        <v>345.4516222043725</v>
+        <v>345.4516222043726</v>
       </c>
       <c r="S44" t="n">
-        <v>125.31755462929</v>
+        <v>125.3175546292901</v>
       </c>
       <c r="T44" t="n">
         <v>24.07361910651528</v>
@@ -34436,49 +34436,49 @@
         <v>0</v>
       </c>
       <c r="G45" t="n">
-        <v>2.942437868659449</v>
+        <v>2.94243786865945</v>
       </c>
       <c r="H45" t="n">
-        <v>28.417755205211</v>
+        <v>28.41775520521101</v>
       </c>
       <c r="I45" t="n">
-        <v>99.52238</v>
+        <v>101.3076196007749</v>
       </c>
       <c r="J45" t="n">
-        <v>126.8376266666667</v>
+        <v>277.9958514420755</v>
       </c>
       <c r="K45" t="n">
         <v>137.841438974359</v>
       </c>
       <c r="L45" t="n">
-        <v>138.5543797798742</v>
+        <v>638.8832749473073</v>
       </c>
       <c r="M45" t="n">
-        <v>734.2678383622665</v>
+        <v>745.5466476862122</v>
       </c>
       <c r="N45" t="n">
-        <v>765.2790490071785</v>
+        <v>765.2790490071786</v>
       </c>
       <c r="O45" t="n">
-        <v>700.0808204437243</v>
+        <v>699.0496615458086</v>
       </c>
       <c r="P45" t="n">
-        <v>561.8765786214698</v>
+        <v>133.9744074143302</v>
       </c>
       <c r="Q45" t="n">
-        <v>375.599612848529</v>
+        <v>139.9817740860215</v>
       </c>
       <c r="R45" t="n">
         <v>182.6892564418561</v>
       </c>
       <c r="S45" t="n">
-        <v>54.65449286742438</v>
+        <v>54.65449286742439</v>
       </c>
       <c r="T45" t="n">
         <v>11.86008947937734</v>
       </c>
       <c r="U45" t="n">
-        <v>0.1935814387275954</v>
+        <v>0.1935814387275955</v>
       </c>
       <c r="V45" t="n">
         <v>0</v>
@@ -34518,25 +34518,25 @@
         <v>2.466841066189903</v>
       </c>
       <c r="H46" t="n">
-        <v>21.9324596612157</v>
+        <v>21.93245966121571</v>
       </c>
       <c r="I46" t="n">
-        <v>74.18463860869275</v>
+        <v>74.18463860869277</v>
       </c>
       <c r="J46" t="n">
-        <v>174.4056633796261</v>
+        <v>174.4056633796262</v>
       </c>
       <c r="K46" t="n">
-        <v>286.6020802355178</v>
+        <v>286.6020802355179</v>
       </c>
       <c r="L46" t="n">
-        <v>366.7519890588153</v>
+        <v>366.7519890588154</v>
       </c>
       <c r="M46" t="n">
-        <v>386.6885500392045</v>
+        <v>386.6885500392046</v>
       </c>
       <c r="N46" t="n">
-        <v>377.4939606106788</v>
+        <v>377.4939606106789</v>
       </c>
       <c r="O46" t="n">
         <v>348.6767717920058</v>
@@ -34545,19 +34545,19 @@
         <v>298.3532140417315</v>
       </c>
       <c r="Q46" t="n">
-        <v>206.5643005515927</v>
+        <v>206.5643005515928</v>
       </c>
       <c r="R46" t="n">
         <v>110.9181446670478</v>
       </c>
       <c r="S46" t="n">
-        <v>42.99031203532766</v>
+        <v>42.99031203532767</v>
       </c>
       <c r="T46" t="n">
         <v>10.54013910099322</v>
       </c>
       <c r="U46" t="n">
-        <v>0.1345549672467221</v>
+        <v>0.1345549672467222</v>
       </c>
       <c r="V46" t="n">
         <v>0</v>
@@ -34696,31 +34696,31 @@
         <v>0</v>
       </c>
       <c r="J2" t="n">
-        <v>137.6579754225036</v>
+        <v>137.6579754225037</v>
       </c>
       <c r="K2" t="n">
         <v>257.5646495407337</v>
       </c>
       <c r="L2" t="n">
-        <v>356.8062301067507</v>
+        <v>356.8062301067508</v>
       </c>
       <c r="M2" t="n">
-        <v>429.0050109457276</v>
+        <v>429.0050109457277</v>
       </c>
       <c r="N2" t="n">
-        <v>440.6071730376314</v>
+        <v>440.6071730376315</v>
       </c>
       <c r="O2" t="n">
-        <v>402.5828984949726</v>
+        <v>402.5828984949727</v>
       </c>
       <c r="P2" t="n">
-        <v>308.7456939637948</v>
+        <v>308.745693963795</v>
       </c>
       <c r="Q2" t="n">
-        <v>183.1958181402556</v>
+        <v>183.1958181402557</v>
       </c>
       <c r="R2" t="n">
-        <v>20.29166330939901</v>
+        <v>20.29166330939904</v>
       </c>
       <c r="S2" t="n">
         <v>0</v>
@@ -34775,31 +34775,31 @@
         <v>0</v>
       </c>
       <c r="J3" t="n">
-        <v>189.0712562313262</v>
+        <v>189.0712562313263</v>
       </c>
       <c r="K3" t="n">
-        <v>186.5874962434848</v>
+        <v>451.0527332560634</v>
       </c>
       <c r="L3" t="n">
-        <v>297.6803606378501</v>
+        <v>412.0358695391854</v>
       </c>
       <c r="M3" t="n">
-        <v>366.9313322820404</v>
+        <v>366.9313322820405</v>
       </c>
       <c r="N3" t="n">
         <v>391.1970995928739</v>
       </c>
       <c r="O3" t="n">
-        <v>640.5848321000389</v>
+        <v>335.424681996123</v>
       </c>
       <c r="P3" t="n">
-        <v>347.9240135433011</v>
+        <v>249.6795291235323</v>
       </c>
       <c r="Q3" t="n">
-        <v>116.4807223308545</v>
+        <v>116.4807223308546</v>
       </c>
       <c r="R3" t="n">
-        <v>0</v>
+        <v>24.58388860977092</v>
       </c>
       <c r="S3" t="n">
         <v>0</v>
@@ -34854,10 +34854,10 @@
         <v>0</v>
       </c>
       <c r="J4" t="n">
-        <v>25.72643735870592</v>
+        <v>25.72643735870594</v>
       </c>
       <c r="K4" t="n">
-        <v>173.424759342349</v>
+        <v>173.4247593423491</v>
       </c>
       <c r="L4" t="n">
         <v>278.0112915831069</v>
@@ -34866,7 +34866,7 @@
         <v>303.6179906468033</v>
       </c>
       <c r="N4" t="n">
-        <v>301.8881449860244</v>
+        <v>301.8881449860245</v>
       </c>
       <c r="O4" t="n">
         <v>262.6644876295069</v>
@@ -34875,7 +34875,7 @@
         <v>200.9965809818072</v>
       </c>
       <c r="Q4" t="n">
-        <v>54.881755458054</v>
+        <v>54.88175545805403</v>
       </c>
       <c r="R4" t="n">
         <v>0</v>
@@ -35012,7 +35012,7 @@
         <v>0</v>
       </c>
       <c r="J6" t="n">
-        <v>62.98022089091739</v>
+        <v>189.0712562313262</v>
       </c>
       <c r="K6" t="n">
         <v>186.5874962434848</v>
@@ -35030,13 +35030,13 @@
         <v>640.5848321000389</v>
       </c>
       <c r="P6" t="n">
-        <v>249.6795291235322</v>
+        <v>347.9240135433006</v>
       </c>
       <c r="Q6" t="n">
-        <v>316.232353481261</v>
+        <v>116.4807223308545</v>
       </c>
       <c r="R6" t="n">
-        <v>24.58388860977091</v>
+        <v>0</v>
       </c>
       <c r="S6" t="n">
         <v>0</v>
@@ -35404,34 +35404,34 @@
         <v>0</v>
       </c>
       <c r="I11" t="n">
-        <v>1.539690236317284</v>
+        <v>1.539690236317256</v>
       </c>
       <c r="J11" t="n">
         <v>285.708711039642</v>
       </c>
       <c r="K11" t="n">
-        <v>479.4543240367771</v>
+        <v>479.454324036777</v>
       </c>
       <c r="L11" t="n">
-        <v>632.079992146269</v>
+        <v>632.0799921462688</v>
       </c>
       <c r="M11" t="n">
-        <v>735.300110790295</v>
+        <v>735.3001107902948</v>
       </c>
       <c r="N11" t="n">
-        <v>751.8584478193518</v>
+        <v>751.8584478193516</v>
       </c>
       <c r="O11" t="n">
-        <v>696.4886512243162</v>
+        <v>696.488651224316</v>
       </c>
       <c r="P11" t="n">
-        <v>559.5874541683813</v>
+        <v>559.5874541683811</v>
       </c>
       <c r="Q11" t="n">
-        <v>371.5675334924729</v>
+        <v>371.5675334924728</v>
       </c>
       <c r="R11" t="n">
-        <v>129.8660843902405</v>
+        <v>129.8660843902404</v>
       </c>
       <c r="S11" t="n">
         <v>0</v>
@@ -35486,31 +35486,31 @@
         <v>0</v>
       </c>
       <c r="J12" t="n">
-        <v>151.1582247754088</v>
+        <v>0</v>
       </c>
       <c r="K12" t="n">
-        <v>337.2977496678996</v>
+        <v>0</v>
       </c>
       <c r="L12" t="n">
-        <v>500.3288951674331</v>
+        <v>0</v>
       </c>
       <c r="M12" t="n">
-        <v>603.4126137641938</v>
+        <v>592.1338044402481</v>
       </c>
       <c r="N12" t="n">
-        <v>633.9373369238454</v>
+        <v>633.9373369238452</v>
       </c>
       <c r="O12" t="n">
-        <v>22.33282074962425</v>
+        <v>557.4845759992799</v>
       </c>
       <c r="P12" t="n">
-        <v>0</v>
+        <v>427.9021712071395</v>
       </c>
       <c r="Q12" t="n">
-        <v>235.6178387625076</v>
+        <v>235.6178387625075</v>
       </c>
       <c r="R12" t="n">
-        <v>0</v>
+        <v>37.00975247789211</v>
       </c>
       <c r="S12" t="n">
         <v>0</v>
@@ -35565,28 +35565,28 @@
         <v>0</v>
       </c>
       <c r="J13" t="n">
-        <v>81.04648326295342</v>
+        <v>81.04648326295336</v>
       </c>
       <c r="K13" t="n">
-        <v>264.332588409635</v>
+        <v>264.3325884096349</v>
       </c>
       <c r="L13" t="n">
-        <v>394.3420143191315</v>
+        <v>394.3420143191314</v>
       </c>
       <c r="M13" t="n">
-        <v>426.2724270010452</v>
+        <v>426.2724270010451</v>
       </c>
       <c r="N13" t="n">
         <v>421.6261329899074</v>
       </c>
       <c r="O13" t="n">
-        <v>373.2618997060455</v>
+        <v>373.2618997060454</v>
       </c>
       <c r="P13" t="n">
         <v>295.631773306625</v>
       </c>
       <c r="Q13" t="n">
-        <v>120.4022572998984</v>
+        <v>120.4022572998967</v>
       </c>
       <c r="R13" t="n">
         <v>0</v>
@@ -35653,7 +35653,7 @@
         <v>632.0799921462688</v>
       </c>
       <c r="M14" t="n">
-        <v>735.3001107902948</v>
+        <v>735.3001107902952</v>
       </c>
       <c r="N14" t="n">
         <v>751.8584478193516</v>
@@ -35726,7 +35726,7 @@
         <v>0</v>
       </c>
       <c r="K15" t="n">
-        <v>25.73094315394657</v>
+        <v>224.339029438562</v>
       </c>
       <c r="L15" t="n">
         <v>0</v>
@@ -35744,10 +35744,10 @@
         <v>427.9021712071395</v>
       </c>
       <c r="Q15" t="n">
-        <v>235.6178387625075</v>
+        <v>0</v>
       </c>
       <c r="R15" t="n">
-        <v>0</v>
+        <v>37.00975247789211</v>
       </c>
       <c r="S15" t="n">
         <v>0</v>
@@ -35881,7 +35881,7 @@
         <v>1.539690236317256</v>
       </c>
       <c r="J17" t="n">
-        <v>285.708711039642</v>
+        <v>285.7087110396425</v>
       </c>
       <c r="K17" t="n">
         <v>479.454324036777</v>
@@ -35890,7 +35890,7 @@
         <v>632.0799921462688</v>
       </c>
       <c r="M17" t="n">
-        <v>735.3001107902952</v>
+        <v>735.3001107902948</v>
       </c>
       <c r="N17" t="n">
         <v>751.8584478193516</v>
@@ -35960,31 +35960,31 @@
         <v>0</v>
       </c>
       <c r="J18" t="n">
-        <v>151.1582247754088</v>
+        <v>0</v>
       </c>
       <c r="K18" t="n">
-        <v>0</v>
+        <v>337.2977496678996</v>
       </c>
       <c r="L18" t="n">
-        <v>0</v>
+        <v>500.328895167433</v>
       </c>
       <c r="M18" t="n">
-        <v>603.4126137641938</v>
+        <v>0</v>
       </c>
       <c r="N18" t="n">
         <v>633.9373369238452</v>
       </c>
       <c r="O18" t="n">
-        <v>557.4845759992799</v>
+        <v>311.9917356041954</v>
       </c>
       <c r="P18" t="n">
-        <v>302.474889585677</v>
+        <v>427.9021712071395</v>
       </c>
       <c r="Q18" t="n">
         <v>235.6178387625075</v>
       </c>
       <c r="R18" t="n">
-        <v>0</v>
+        <v>37.00975247789211</v>
       </c>
       <c r="S18" t="n">
         <v>0</v>
@@ -36200,7 +36200,7 @@
         <v>0</v>
       </c>
       <c r="K21" t="n">
-        <v>0</v>
+        <v>337.2977496678996</v>
       </c>
       <c r="L21" t="n">
         <v>0</v>
@@ -36209,16 +36209,16 @@
         <v>603.4126137641938</v>
       </c>
       <c r="N21" t="n">
-        <v>622.6585275998996</v>
+        <v>633.9373369238452</v>
       </c>
       <c r="O21" t="n">
         <v>557.4845759992799</v>
       </c>
       <c r="P21" t="n">
-        <v>427.9021712071395</v>
+        <v>314.9434509778015</v>
       </c>
       <c r="Q21" t="n">
-        <v>235.6178387625075</v>
+        <v>0</v>
       </c>
       <c r="R21" t="n">
         <v>37.00975247789211</v>
@@ -36279,7 +36279,7 @@
         <v>81.04648326295336</v>
       </c>
       <c r="K22" t="n">
-        <v>264.3325884096349</v>
+        <v>264.3325884096333</v>
       </c>
       <c r="L22" t="n">
         <v>394.3420143191314</v>
@@ -36355,7 +36355,7 @@
         <v>1.539690236317256</v>
       </c>
       <c r="J23" t="n">
-        <v>285.708711039642</v>
+        <v>285.7087110396425</v>
       </c>
       <c r="K23" t="n">
         <v>479.454324036777</v>
@@ -36379,7 +36379,7 @@
         <v>371.5675334924728</v>
       </c>
       <c r="R23" t="n">
-        <v>129.8660843902408</v>
+        <v>129.8660843902404</v>
       </c>
       <c r="S23" t="n">
         <v>0</v>
@@ -36434,19 +36434,19 @@
         <v>0</v>
       </c>
       <c r="J24" t="n">
-        <v>0</v>
+        <v>57.6594740049667</v>
       </c>
       <c r="K24" t="n">
-        <v>0</v>
+        <v>337.2977496678996</v>
       </c>
       <c r="L24" t="n">
-        <v>0</v>
+        <v>500.328895167433</v>
       </c>
       <c r="M24" t="n">
-        <v>592.1338044402481</v>
+        <v>603.4126137641938</v>
       </c>
       <c r="N24" t="n">
-        <v>633.9373369238452</v>
+        <v>0</v>
       </c>
       <c r="O24" t="n">
         <v>557.4845759992799</v>
@@ -36455,10 +36455,10 @@
         <v>427.9021712071395</v>
       </c>
       <c r="Q24" t="n">
-        <v>235.6178387625075</v>
+        <v>0</v>
       </c>
       <c r="R24" t="n">
-        <v>37.00975247789211</v>
+        <v>0</v>
       </c>
       <c r="S24" t="n">
         <v>0</v>
@@ -36607,7 +36607,7 @@
         <v>751.8584478193516</v>
       </c>
       <c r="O26" t="n">
-        <v>696.488651224316</v>
+        <v>696.4886512243162</v>
       </c>
       <c r="P26" t="n">
         <v>559.5874541683811</v>
@@ -36668,7 +36668,7 @@
         <v>0</v>
       </c>
       <c r="I27" t="n">
-        <v>1.785239600774915</v>
+        <v>0</v>
       </c>
       <c r="J27" t="n">
         <v>151.1582247754088</v>
@@ -36677,25 +36677,25 @@
         <v>337.2977496678996</v>
       </c>
       <c r="L27" t="n">
-        <v>500.328895167433</v>
+        <v>369.8203919190988</v>
       </c>
       <c r="M27" t="n">
         <v>603.4126137641938</v>
       </c>
       <c r="N27" t="n">
-        <v>633.9373369238452</v>
+        <v>0</v>
       </c>
       <c r="O27" t="n">
-        <v>256.1654199113569</v>
+        <v>557.4845759992799</v>
       </c>
       <c r="P27" t="n">
-        <v>0</v>
+        <v>427.9021712071395</v>
       </c>
       <c r="Q27" t="n">
         <v>0</v>
       </c>
       <c r="R27" t="n">
-        <v>0</v>
+        <v>37.00975247789211</v>
       </c>
       <c r="S27" t="n">
         <v>0</v>
@@ -36914,25 +36914,25 @@
         <v>337.2977496678996</v>
       </c>
       <c r="L30" t="n">
-        <v>500.328895167433</v>
+        <v>132.4173135558164</v>
       </c>
       <c r="M30" t="n">
         <v>603.4126137641938</v>
       </c>
       <c r="N30" t="n">
-        <v>633.9373369238452</v>
+        <v>0</v>
       </c>
       <c r="O30" t="n">
-        <v>256.1654199113569</v>
+        <v>557.4845759992799</v>
       </c>
       <c r="P30" t="n">
-        <v>0</v>
+        <v>427.9021712071395</v>
       </c>
       <c r="Q30" t="n">
-        <v>0</v>
+        <v>235.6178387625075</v>
       </c>
       <c r="R30" t="n">
-        <v>0</v>
+        <v>37.00975247789211</v>
       </c>
       <c r="S30" t="n">
         <v>0</v>
@@ -37063,7 +37063,7 @@
         <v>0</v>
       </c>
       <c r="I32" t="n">
-        <v>1.539690236317256</v>
+        <v>1.539690236317809</v>
       </c>
       <c r="J32" t="n">
         <v>285.708711039642</v>
@@ -37151,7 +37151,7 @@
         <v>337.2977496678996</v>
       </c>
       <c r="L33" t="n">
-        <v>500.328895167433</v>
+        <v>55.9645526312509</v>
       </c>
       <c r="M33" t="n">
         <v>603.4126137641938</v>
@@ -37160,16 +37160,16 @@
         <v>633.9373369238452</v>
       </c>
       <c r="O33" t="n">
-        <v>256.1654199113569</v>
+        <v>0</v>
       </c>
       <c r="P33" t="n">
-        <v>0</v>
+        <v>427.9021712071395</v>
       </c>
       <c r="Q33" t="n">
-        <v>0</v>
+        <v>235.6178387625075</v>
       </c>
       <c r="R33" t="n">
-        <v>0</v>
+        <v>37.00975247789211</v>
       </c>
       <c r="S33" t="n">
         <v>0</v>
@@ -37382,25 +37382,25 @@
         <v>0</v>
       </c>
       <c r="J36" t="n">
-        <v>0</v>
+        <v>151.1582247754088</v>
       </c>
       <c r="K36" t="n">
         <v>0</v>
       </c>
       <c r="L36" t="n">
-        <v>0</v>
+        <v>500.328895167433</v>
       </c>
       <c r="M36" t="n">
-        <v>592.1338044402481</v>
+        <v>603.4126137641938</v>
       </c>
       <c r="N36" t="n">
-        <v>633.9373369238452</v>
+        <v>399.073578864197</v>
       </c>
       <c r="O36" t="n">
         <v>557.4845759992799</v>
       </c>
       <c r="P36" t="n">
-        <v>427.9021712071395</v>
+        <v>0</v>
       </c>
       <c r="Q36" t="n">
         <v>235.6178387625075</v>
@@ -37461,7 +37461,7 @@
         <v>0</v>
       </c>
       <c r="J37" t="n">
-        <v>81.04648326295336</v>
+        <v>81.04648326295167</v>
       </c>
       <c r="K37" t="n">
         <v>264.3325884096349</v>
@@ -37537,34 +37537,34 @@
         <v>0</v>
       </c>
       <c r="I38" t="n">
-        <v>1.539690236317256</v>
+        <v>1.539690236317284</v>
       </c>
       <c r="J38" t="n">
         <v>285.708711039642</v>
       </c>
       <c r="K38" t="n">
-        <v>479.454324036777</v>
+        <v>479.4543240367771</v>
       </c>
       <c r="L38" t="n">
-        <v>632.0799921462688</v>
+        <v>632.079992146269</v>
       </c>
       <c r="M38" t="n">
-        <v>735.3001107902952</v>
+        <v>735.300110790295</v>
       </c>
       <c r="N38" t="n">
-        <v>751.8584478193516</v>
+        <v>751.8584478193518</v>
       </c>
       <c r="O38" t="n">
-        <v>696.488651224316</v>
+        <v>696.4886512243162</v>
       </c>
       <c r="P38" t="n">
-        <v>559.5874541683811</v>
+        <v>559.5874541683813</v>
       </c>
       <c r="Q38" t="n">
-        <v>371.5675334924728</v>
+        <v>371.5675334924719</v>
       </c>
       <c r="R38" t="n">
-        <v>129.8660843902404</v>
+        <v>129.8660843902405</v>
       </c>
       <c r="S38" t="n">
         <v>0</v>
@@ -37622,28 +37622,28 @@
         <v>0</v>
       </c>
       <c r="K39" t="n">
-        <v>0</v>
+        <v>337.2977496678996</v>
       </c>
       <c r="L39" t="n">
-        <v>0</v>
+        <v>500.3288951674331</v>
       </c>
       <c r="M39" t="n">
-        <v>592.1338044402481</v>
+        <v>0</v>
       </c>
       <c r="N39" t="n">
-        <v>633.9373369238452</v>
+        <v>633.9373369238454</v>
       </c>
       <c r="O39" t="n">
-        <v>557.4845759992799</v>
+        <v>557.48457599928</v>
       </c>
       <c r="P39" t="n">
-        <v>427.9021712071395</v>
+        <v>427.9021712071396</v>
       </c>
       <c r="Q39" t="n">
-        <v>235.6178387625075</v>
+        <v>0</v>
       </c>
       <c r="R39" t="n">
-        <v>37.00975247789211</v>
+        <v>27.13475084531481</v>
       </c>
       <c r="S39" t="n">
         <v>0</v>
@@ -37698,22 +37698,22 @@
         <v>0</v>
       </c>
       <c r="J40" t="n">
-        <v>81.04648326295336</v>
+        <v>81.04648326295342</v>
       </c>
       <c r="K40" t="n">
-        <v>264.3325884096349</v>
+        <v>264.332588409635</v>
       </c>
       <c r="L40" t="n">
-        <v>394.3420143191314</v>
+        <v>394.3420143191315</v>
       </c>
       <c r="M40" t="n">
-        <v>426.2724270010451</v>
+        <v>426.2724270010452</v>
       </c>
       <c r="N40" t="n">
         <v>421.6261329899074</v>
       </c>
       <c r="O40" t="n">
-        <v>373.2618997060454</v>
+        <v>373.2618997060455</v>
       </c>
       <c r="P40" t="n">
         <v>295.631773306625</v>
@@ -37774,34 +37774,34 @@
         <v>0</v>
       </c>
       <c r="I41" t="n">
-        <v>1.539690236317256</v>
+        <v>1.539690236317284</v>
       </c>
       <c r="J41" t="n">
         <v>285.708711039642</v>
       </c>
       <c r="K41" t="n">
-        <v>479.4543240367776</v>
+        <v>479.4543240367771</v>
       </c>
       <c r="L41" t="n">
-        <v>632.0799921462688</v>
+        <v>632.079992146269</v>
       </c>
       <c r="M41" t="n">
-        <v>735.3001107902948</v>
+        <v>735.300110790295</v>
       </c>
       <c r="N41" t="n">
-        <v>751.8584478193516</v>
+        <v>751.8584478193518</v>
       </c>
       <c r="O41" t="n">
-        <v>696.488651224316</v>
+        <v>696.4886512243162</v>
       </c>
       <c r="P41" t="n">
-        <v>559.5874541683811</v>
+        <v>559.5874541683813</v>
       </c>
       <c r="Q41" t="n">
-        <v>371.5675334924728</v>
+        <v>371.5675334924729</v>
       </c>
       <c r="R41" t="n">
-        <v>129.8660843902404</v>
+        <v>129.8660843902405</v>
       </c>
       <c r="S41" t="n">
         <v>0</v>
@@ -37856,31 +37856,31 @@
         <v>0</v>
       </c>
       <c r="J42" t="n">
-        <v>0</v>
+        <v>151.1582247754088</v>
       </c>
       <c r="K42" t="n">
-        <v>0</v>
+        <v>337.2977496678996</v>
       </c>
       <c r="L42" t="n">
-        <v>0</v>
+        <v>94.75954470991771</v>
       </c>
       <c r="M42" t="n">
-        <v>592.1338044402481</v>
+        <v>603.4126137641938</v>
       </c>
       <c r="N42" t="n">
-        <v>633.9373369238452</v>
+        <v>633.9373369238454</v>
       </c>
       <c r="O42" t="n">
-        <v>557.4845759992799</v>
+        <v>0</v>
       </c>
       <c r="P42" t="n">
-        <v>427.9021712071395</v>
+        <v>427.9021712071396</v>
       </c>
       <c r="Q42" t="n">
-        <v>235.6178387625075</v>
+        <v>235.6178387625076</v>
       </c>
       <c r="R42" t="n">
-        <v>37.00975247789211</v>
+        <v>0</v>
       </c>
       <c r="S42" t="n">
         <v>0</v>
@@ -37935,22 +37935,22 @@
         <v>0</v>
       </c>
       <c r="J43" t="n">
-        <v>81.04648326295336</v>
+        <v>81.04648326295342</v>
       </c>
       <c r="K43" t="n">
-        <v>264.3325884096349</v>
+        <v>264.332588409635</v>
       </c>
       <c r="L43" t="n">
-        <v>394.3420143191314</v>
+        <v>394.3420143191315</v>
       </c>
       <c r="M43" t="n">
-        <v>426.2724270010451</v>
+        <v>426.2724270010452</v>
       </c>
       <c r="N43" t="n">
         <v>421.6261329899074</v>
       </c>
       <c r="O43" t="n">
-        <v>373.2618997060454</v>
+        <v>373.2618997060455</v>
       </c>
       <c r="P43" t="n">
         <v>295.631773306625</v>
@@ -38011,34 +38011,34 @@
         <v>0</v>
       </c>
       <c r="I44" t="n">
-        <v>1.539690236317256</v>
+        <v>1.539690236317284</v>
       </c>
       <c r="J44" t="n">
         <v>285.708711039642</v>
       </c>
       <c r="K44" t="n">
-        <v>479.454324036777</v>
+        <v>479.4543240367771</v>
       </c>
       <c r="L44" t="n">
-        <v>632.0799921462688</v>
+        <v>632.079992146269</v>
       </c>
       <c r="M44" t="n">
-        <v>735.3001107902948</v>
+        <v>735.300110790295</v>
       </c>
       <c r="N44" t="n">
-        <v>751.8584478193516</v>
+        <v>751.8584478193518</v>
       </c>
       <c r="O44" t="n">
         <v>696.4886512243162</v>
       </c>
       <c r="P44" t="n">
-        <v>559.5874541683811</v>
+        <v>559.5874541683802</v>
       </c>
       <c r="Q44" t="n">
-        <v>371.5675334924728</v>
+        <v>371.5675334924729</v>
       </c>
       <c r="R44" t="n">
-        <v>129.8660843902404</v>
+        <v>129.8660843902405</v>
       </c>
       <c r="S44" t="n">
         <v>0</v>
@@ -38090,34 +38090,34 @@
         <v>0</v>
       </c>
       <c r="I45" t="n">
-        <v>0</v>
+        <v>1.785239600774929</v>
       </c>
       <c r="J45" t="n">
-        <v>0</v>
+        <v>151.1582247754088</v>
       </c>
       <c r="K45" t="n">
         <v>0</v>
       </c>
       <c r="L45" t="n">
-        <v>0</v>
+        <v>500.3288951674331</v>
       </c>
       <c r="M45" t="n">
-        <v>592.1338044402481</v>
+        <v>603.4126137641938</v>
       </c>
       <c r="N45" t="n">
-        <v>633.9373369238452</v>
+        <v>633.9373369238454</v>
       </c>
       <c r="O45" t="n">
-        <v>557.4845759992799</v>
+        <v>556.4534171013642</v>
       </c>
       <c r="P45" t="n">
-        <v>427.9021712071395</v>
+        <v>0</v>
       </c>
       <c r="Q45" t="n">
-        <v>235.6178387625075</v>
+        <v>0</v>
       </c>
       <c r="R45" t="n">
-        <v>37.00975247789211</v>
+        <v>37.00975247789214</v>
       </c>
       <c r="S45" t="n">
         <v>0</v>
@@ -38172,22 +38172,22 @@
         <v>0</v>
       </c>
       <c r="J46" t="n">
-        <v>81.04648326295336</v>
+        <v>81.04648326295342</v>
       </c>
       <c r="K46" t="n">
-        <v>264.3325884096349</v>
+        <v>264.332588409635</v>
       </c>
       <c r="L46" t="n">
-        <v>394.3420143191314</v>
+        <v>394.3420143191315</v>
       </c>
       <c r="M46" t="n">
-        <v>426.2724270010451</v>
+        <v>426.2724270010452</v>
       </c>
       <c r="N46" t="n">
         <v>421.6261329899074</v>
       </c>
       <c r="O46" t="n">
-        <v>373.2618997060454</v>
+        <v>373.2618997060455</v>
       </c>
       <c r="P46" t="n">
         <v>295.631773306625</v>
